--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-00022.xlsx
@@ -11,14 +11,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -194,6 +193,12 @@
     <t>3周内涨幅
 (超过50%，则靠近，考虑卖出)</t>
   </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
 </sst>
 </file>
 
@@ -201,9 +206,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -244,8 +249,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,14 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,9 +304,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,25 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +358,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,23 +378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +400,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +445,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,7 +493,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,163 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,11 +725,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,17 +773,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,41 +799,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,152 +818,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,40 +1039,46 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2635,19 +2658,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="交易计划及执行表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2914,11 +2924,11 @@
   <dimension ref="A1:AG479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7:M8"/>
+      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2978,25 +2988,25 @@
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="32" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3021,23 +3031,23 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28" t="s">
+      <c r="U2" s="29"/>
+      <c r="V2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="33" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="36"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="38"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="5"/>
@@ -3064,19 +3074,19 @@
       <c r="R3" s="23"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="36"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="38"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="5"/>
@@ -3137,37 +3147,37 @@
       <c r="T4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="29" t="s">
+      <c r="U4" s="29"/>
+      <c r="V4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="31" t="s">
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="36"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="38"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="5"/>
@@ -3190,25 +3200,25 @@
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="24"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30" t="s">
+      <c r="U5" s="29"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="30" t="s">
+      <c r="Y5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="36"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="38"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="8">
         <v>44547</v>
       </c>
@@ -3239,9 +3249,9 @@
       <c r="J6" s="17">
         <v>0.0584</v>
       </c>
-      <c r="K6" s="17" t="e">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
-        <v>#N/A</v>
+      <c r="K6" s="17">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <v>0.00447876447876458</v>
       </c>
       <c r="L6" s="18">
         <f>I6/(ROW()-5)</f>
@@ -3251,14 +3261,33 @@
         <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="N6" s="10" t="str">
+        <f>IF(B6&lt;F6,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="25" t="str">
+        <f>IF(I6/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T6" s="25" t="str">
+        <f>IF(SUM($M$6:$M6)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="4"/>
@@ -3269,9 +3298,15 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="35"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AF6" s="37">
+        <v>59.29</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <v>-5.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="8">
         <v>44550</v>
       </c>
@@ -3303,9 +3338,9 @@
         <f>(B7-B6)/B6</f>
         <v>0.0900984009840098</v>
       </c>
-      <c r="K7" s="17" t="e">
-        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>#N/A</v>
+      <c r="K7" s="17">
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>0.0949806949806951</v>
       </c>
       <c r="L7" s="18">
         <f>I7/(ROW()-5)</f>
@@ -3315,14 +3350,33 @@
         <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
+      <c r="N7" s="10" t="str">
+        <f>IF(B7&lt;F7,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="25" t="str">
+        <f>IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T7" s="25" t="str">
+        <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="4"/>
@@ -3333,9 +3387,16 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="35"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AF7" s="37">
+        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
+        <v>59.29</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <v>-5.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="8">
         <v>44551</v>
       </c>
@@ -3367,7 +3428,10 @@
         <f>(B8-B7)/B7</f>
         <v>0.0166431593794075</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="17">
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>0.113204633204633</v>
+      </c>
       <c r="L8" s="18">
         <f>I8/(ROW()-5)</f>
         <v>1</v>
@@ -3376,14 +3440,33 @@
         <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="N8" s="10" t="str">
+        <f>IF(B8&lt;F8,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="25" t="str">
+        <f>IF(I8/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T8" s="25" t="str">
+        <f>IF(SUM($M$6:$M8)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="4"/>
@@ -3394,7 +3477,14 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="35"/>
+      <c r="AF8" s="37">
+        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
+        <v>59.29</v>
+      </c>
+      <c r="AG8" s="4">
+        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>-5.46</v>
+      </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="8">
@@ -3430,7 +3520,7 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="35"/>
+      <c r="AF9" s="37"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="8">
@@ -3466,7 +3556,7 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="35"/>
+      <c r="AF10" s="37"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="8">
@@ -3502,7 +3592,7 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="35"/>
+      <c r="AF11" s="37"/>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="8">
@@ -3538,7 +3628,7 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="35"/>
+      <c r="AF12" s="37"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="8">
@@ -3574,7 +3664,7 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="35"/>
+      <c r="AF13" s="37"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="8">
@@ -3610,7 +3700,7 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="35"/>
+      <c r="AF14" s="37"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="8">
@@ -3646,7 +3736,7 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="35"/>
+      <c r="AF15" s="37"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="8">
@@ -3682,7 +3772,7 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="35"/>
+      <c r="AF16" s="37"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="8">
@@ -3718,7 +3808,7 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="35"/>
+      <c r="AF17" s="37"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="8">
@@ -3754,7 +3844,7 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="35"/>
+      <c r="AF18" s="37"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="8">
@@ -3790,7 +3880,7 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="35"/>
+      <c r="AF19" s="37"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="8">
@@ -3826,7 +3916,7 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="35"/>
+      <c r="AF20" s="37"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="8">
@@ -3862,7 +3952,7 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="35"/>
+      <c r="AF21" s="37"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="8">
@@ -3898,7 +3988,7 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="35"/>
+      <c r="AF22" s="37"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="8">
@@ -3934,7 +4024,7 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="35"/>
+      <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8">
@@ -3970,7 +4060,7 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
-      <c r="AF24" s="35"/>
+      <c r="AF24" s="37"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="8">
@@ -4006,7 +4096,7 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-      <c r="AF25" s="35"/>
+      <c r="AF25" s="37"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="8"/>
@@ -4040,7 +4130,7 @@
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
-      <c r="AF26" s="35"/>
+      <c r="AF26" s="37"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="8"/>
@@ -4074,7 +4164,7 @@
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
-      <c r="AF27" s="35"/>
+      <c r="AF27" s="37"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="8"/>
@@ -4108,7 +4198,7 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
-      <c r="AF28" s="35"/>
+      <c r="AF28" s="37"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="8"/>
@@ -4142,7 +4232,7 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="35"/>
+      <c r="AF29" s="37"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="8"/>
@@ -4176,7 +4266,7 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AF30" s="35"/>
+      <c r="AF30" s="37"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="8"/>
@@ -4210,7 +4300,7 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="35"/>
+      <c r="AF31" s="37"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="8"/>
@@ -4244,7 +4334,7 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
-      <c r="AF32" s="35"/>
+      <c r="AF32" s="37"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="8"/>
@@ -4278,7 +4368,7 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="35"/>
+      <c r="AF33" s="37"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="8"/>
@@ -4312,7 +4402,7 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="35"/>
+      <c r="AF34" s="37"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="8"/>
@@ -4346,7 +4436,7 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="35"/>
+      <c r="AF35" s="37"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="8"/>
@@ -4380,7 +4470,7 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
-      <c r="AF36" s="35"/>
+      <c r="AF36" s="37"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="8"/>
@@ -4414,7 +4504,7 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
-      <c r="AF37" s="35"/>
+      <c r="AF37" s="37"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="8"/>
@@ -4448,7 +4538,7 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
-      <c r="AF38" s="35"/>
+      <c r="AF38" s="37"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="8"/>
@@ -4482,7 +4572,7 @@
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="35"/>
+      <c r="AF39" s="37"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="8"/>
@@ -4516,7 +4606,7 @@
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="35"/>
+      <c r="AF40" s="37"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="8"/>
@@ -4550,7 +4640,7 @@
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="35"/>
+      <c r="AF41" s="37"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="8"/>
@@ -4584,7 +4674,7 @@
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="35"/>
+      <c r="AF42" s="37"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="8"/>
@@ -4618,7 +4708,7 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
-      <c r="AF43" s="35"/>
+      <c r="AF43" s="37"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="8"/>
@@ -4652,7 +4742,7 @@
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
-      <c r="AF44" s="35"/>
+      <c r="AF44" s="37"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="8"/>
@@ -4686,7 +4776,7 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
-      <c r="AF45" s="35"/>
+      <c r="AF45" s="37"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="8"/>
@@ -4720,7 +4810,7 @@
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
-      <c r="AF46" s="35"/>
+      <c r="AF46" s="37"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="8"/>
@@ -4754,7 +4844,7 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
-      <c r="AF47" s="35"/>
+      <c r="AF47" s="37"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="8"/>
@@ -4788,7 +4878,7 @@
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
-      <c r="AF48" s="35"/>
+      <c r="AF48" s="37"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="8"/>
@@ -4822,7 +4912,7 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
-      <c r="AF49" s="35"/>
+      <c r="AF49" s="37"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="8"/>
@@ -4856,7 +4946,7 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
-      <c r="AF50" s="35"/>
+      <c r="AF50" s="37"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="8"/>
@@ -4890,7 +4980,7 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="35"/>
+      <c r="AF51" s="37"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="8"/>
@@ -4924,7 +5014,7 @@
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
-      <c r="AF52" s="35"/>
+      <c r="AF52" s="37"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="8"/>
@@ -4958,7 +5048,7 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="35"/>
+      <c r="AF53" s="37"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="8"/>
@@ -4992,7 +5082,7 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="35"/>
+      <c r="AF54" s="37"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="8"/>
@@ -5026,7 +5116,7 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="35"/>
+      <c r="AF55" s="37"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="8"/>
@@ -5060,7 +5150,7 @@
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
-      <c r="AF56" s="35"/>
+      <c r="AF56" s="37"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="8"/>
@@ -5094,7 +5184,7 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
-      <c r="AF57" s="35"/>
+      <c r="AF57" s="37"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="8"/>
@@ -5128,7 +5218,7 @@
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
-      <c r="AF58" s="35"/>
+      <c r="AF58" s="37"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="8"/>
@@ -5162,7 +5252,7 @@
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
-      <c r="AF59" s="35"/>
+      <c r="AF59" s="37"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="8"/>
@@ -5196,7 +5286,7 @@
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
-      <c r="AF60" s="35"/>
+      <c r="AF60" s="37"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="8"/>
@@ -5230,7 +5320,7 @@
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="35"/>
+      <c r="AF61" s="37"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="8"/>
@@ -5264,7 +5354,7 @@
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
-      <c r="AF62" s="35"/>
+      <c r="AF62" s="37"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="8"/>
@@ -5298,7 +5388,7 @@
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="35"/>
+      <c r="AF63" s="37"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="8"/>
@@ -5332,7 +5422,7 @@
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
-      <c r="AF64" s="35"/>
+      <c r="AF64" s="37"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="8"/>
@@ -5366,7 +5456,7 @@
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
-      <c r="AF65" s="35"/>
+      <c r="AF65" s="37"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="8"/>
@@ -5400,7 +5490,7 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="35"/>
+      <c r="AF66" s="37"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="8"/>
@@ -5434,7 +5524,7 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="35"/>
+      <c r="AF67" s="37"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="8"/>
@@ -5468,7 +5558,7 @@
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
-      <c r="AF68" s="35"/>
+      <c r="AF68" s="37"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="8"/>
@@ -5502,7 +5592,7 @@
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
-      <c r="AF69" s="35"/>
+      <c r="AF69" s="37"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="8"/>
@@ -5536,7 +5626,7 @@
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
-      <c r="AF70" s="35"/>
+      <c r="AF70" s="37"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="8"/>
@@ -5570,7 +5660,7 @@
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
-      <c r="AF71" s="35"/>
+      <c r="AF71" s="37"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="8"/>
@@ -5604,7 +5694,7 @@
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
-      <c r="AF72" s="35"/>
+      <c r="AF72" s="37"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="8"/>
@@ -5638,7 +5728,7 @@
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
-      <c r="AF73" s="35"/>
+      <c r="AF73" s="37"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="8"/>
@@ -5672,7 +5762,7 @@
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
-      <c r="AF74" s="35"/>
+      <c r="AF74" s="37"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="8"/>
@@ -5706,7 +5796,7 @@
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
-      <c r="AF75" s="35"/>
+      <c r="AF75" s="37"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="8"/>
@@ -5740,7 +5830,7 @@
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
-      <c r="AF76" s="35"/>
+      <c r="AF76" s="37"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="8"/>
@@ -5774,7 +5864,7 @@
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
-      <c r="AF77" s="35"/>
+      <c r="AF77" s="37"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="8"/>
@@ -5808,7 +5898,7 @@
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
-      <c r="AF78" s="35"/>
+      <c r="AF78" s="37"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="8"/>
@@ -5842,7 +5932,7 @@
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
-      <c r="AF79" s="35"/>
+      <c r="AF79" s="37"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="8"/>
@@ -5876,7 +5966,7 @@
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
-      <c r="AF80" s="35"/>
+      <c r="AF80" s="37"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="8"/>
@@ -5910,7 +6000,7 @@
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
-      <c r="AF81" s="35"/>
+      <c r="AF81" s="37"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="8"/>
@@ -5944,7 +6034,7 @@
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
-      <c r="AF82" s="35"/>
+      <c r="AF82" s="37"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="8"/>
@@ -5978,7 +6068,7 @@
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
-      <c r="AF83" s="35"/>
+      <c r="AF83" s="37"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="8"/>
@@ -6012,7 +6102,7 @@
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
-      <c r="AF84" s="35"/>
+      <c r="AF84" s="37"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="8"/>
@@ -6046,7 +6136,7 @@
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
-      <c r="AF85" s="35"/>
+      <c r="AF85" s="37"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="8"/>
@@ -6080,7 +6170,7 @@
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
-      <c r="AF86" s="35"/>
+      <c r="AF86" s="37"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="8"/>
@@ -6114,7 +6204,7 @@
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
-      <c r="AF87" s="35"/>
+      <c r="AF87" s="37"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="8"/>
@@ -6148,7 +6238,7 @@
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
-      <c r="AF88" s="35"/>
+      <c r="AF88" s="37"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="8"/>
@@ -6182,7 +6272,7 @@
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
-      <c r="AF89" s="35"/>
+      <c r="AF89" s="37"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="8"/>
@@ -6216,7 +6306,7 @@
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
-      <c r="AF90" s="35"/>
+      <c r="AF90" s="37"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="8"/>
@@ -6250,7 +6340,7 @@
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
-      <c r="AF91" s="35"/>
+      <c r="AF91" s="37"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="8"/>
@@ -6284,7 +6374,7 @@
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
-      <c r="AF92" s="35"/>
+      <c r="AF92" s="37"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="8"/>
@@ -6318,7 +6408,7 @@
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
-      <c r="AF93" s="35"/>
+      <c r="AF93" s="37"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="8"/>
@@ -6352,7 +6442,7 @@
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
-      <c r="AF94" s="35"/>
+      <c r="AF94" s="37"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="8"/>
@@ -6386,7 +6476,7 @@
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
-      <c r="AF95" s="35"/>
+      <c r="AF95" s="37"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="8"/>
@@ -6420,7 +6510,7 @@
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
-      <c r="AF96" s="35"/>
+      <c r="AF96" s="37"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="8"/>
@@ -6454,7 +6544,7 @@
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
-      <c r="AF97" s="35"/>
+      <c r="AF97" s="37"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="8"/>
@@ -6488,7 +6578,7 @@
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
-      <c r="AF98" s="35"/>
+      <c r="AF98" s="37"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="8"/>
@@ -6522,7 +6612,7 @@
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
-      <c r="AF99" s="35"/>
+      <c r="AF99" s="37"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="8"/>
@@ -6556,7 +6646,7 @@
       <c r="AC100" s="4"/>
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
-      <c r="AF100" s="35"/>
+      <c r="AF100" s="37"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="8"/>
@@ -6590,7 +6680,7 @@
       <c r="AC101" s="4"/>
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
-      <c r="AF101" s="35"/>
+      <c r="AF101" s="37"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="8"/>
@@ -6624,7 +6714,7 @@
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
-      <c r="AF102" s="35"/>
+      <c r="AF102" s="37"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="8"/>
@@ -6658,7 +6748,7 @@
       <c r="AC103" s="4"/>
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
-      <c r="AF103" s="35"/>
+      <c r="AF103" s="37"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="8"/>
@@ -6692,7 +6782,7 @@
       <c r="AC104" s="4"/>
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
-      <c r="AF104" s="35"/>
+      <c r="AF104" s="37"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="8"/>
@@ -6726,7 +6816,7 @@
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
-      <c r="AF105" s="35"/>
+      <c r="AF105" s="37"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="8"/>
@@ -6760,7 +6850,7 @@
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
-      <c r="AF106" s="35"/>
+      <c r="AF106" s="37"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="8"/>
@@ -6794,7 +6884,7 @@
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
-      <c r="AF107" s="35"/>
+      <c r="AF107" s="37"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="8"/>
@@ -6828,7 +6918,7 @@
       <c r="AC108" s="4"/>
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
-      <c r="AF108" s="35"/>
+      <c r="AF108" s="37"/>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" s="1"/>
@@ -6839,9 +6929,9 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="38"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="40"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -6861,9 +6951,9 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="38"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="40"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -6883,9 +6973,9 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="38"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="40"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -6905,9 +6995,9 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="38"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="40"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -6927,9 +7017,9 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="38"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="40"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -6949,9 +7039,9 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="37"/>
-      <c r="L114" s="38"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="40"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -6971,9 +7061,9 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="38"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="40"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -6993,9 +7083,9 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="37"/>
-      <c r="L116" s="38"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="40"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -7015,9 +7105,9 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="38"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="40"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -7037,9 +7127,9 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="37"/>
-      <c r="L118" s="38"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="40"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -7059,9 +7149,9 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="37"/>
-      <c r="L119" s="38"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="40"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -7081,9 +7171,9 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="37"/>
-      <c r="L120" s="38"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="40"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -7103,9 +7193,9 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="38"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="40"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -7125,9 +7215,9 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="37"/>
-      <c r="L122" s="38"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="40"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -7147,9 +7237,9 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="38"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="40"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -7169,9 +7259,9 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="37"/>
-      <c r="K124" s="37"/>
-      <c r="L124" s="38"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="40"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -7191,9 +7281,9 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="38"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="40"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -7213,9 +7303,9 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
-      <c r="L126" s="38"/>
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="40"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -7235,9 +7325,9 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
-      <c r="L127" s="38"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="40"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -7257,9 +7347,9 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
-      <c r="L128" s="38"/>
+      <c r="J128" s="39"/>
+      <c r="K128" s="39"/>
+      <c r="L128" s="40"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -7279,9 +7369,9 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="37"/>
-      <c r="L129" s="38"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="40"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -7301,9 +7391,9 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="38"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="40"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -7323,9 +7413,9 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="37"/>
-      <c r="K131" s="37"/>
-      <c r="L131" s="38"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="40"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -7345,9 +7435,9 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="37"/>
-      <c r="L132" s="38"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="40"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -7367,9 +7457,9 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="37"/>
-      <c r="K133" s="37"/>
-      <c r="L133" s="38"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="40"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -7389,9 +7479,9 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="37"/>
-      <c r="L134" s="38"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="39"/>
+      <c r="L134" s="40"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -7411,9 +7501,9 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="37"/>
-      <c r="K135" s="37"/>
-      <c r="L135" s="38"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="40"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -7433,9 +7523,9 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="37"/>
-      <c r="L136" s="38"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="40"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -7455,9 +7545,9 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="37"/>
-      <c r="K137" s="37"/>
-      <c r="L137" s="38"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="40"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -7477,9 +7567,9 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="37"/>
-      <c r="K138" s="37"/>
-      <c r="L138" s="38"/>
+      <c r="J138" s="39"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="40"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -7499,9 +7589,9 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="37"/>
-      <c r="K139" s="37"/>
-      <c r="L139" s="38"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="40"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -7521,9 +7611,9 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="37"/>
-      <c r="K140" s="37"/>
-      <c r="L140" s="38"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="40"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -7543,9 +7633,9 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="37"/>
-      <c r="K141" s="37"/>
-      <c r="L141" s="38"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="40"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -7565,9 +7655,9 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="37"/>
-      <c r="L142" s="38"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="40"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -7587,9 +7677,9 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="37"/>
-      <c r="L143" s="38"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="40"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -7609,9 +7699,9 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="37"/>
-      <c r="L144" s="38"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="40"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -7631,9 +7721,9 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="37"/>
-      <c r="K145" s="37"/>
-      <c r="L145" s="38"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="39"/>
+      <c r="L145" s="40"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -7653,9 +7743,9 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="37"/>
-      <c r="L146" s="38"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="39"/>
+      <c r="L146" s="40"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -7675,9 +7765,9 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="37"/>
-      <c r="L147" s="38"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="39"/>
+      <c r="L147" s="40"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -7697,9 +7787,9 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="37"/>
-      <c r="L148" s="38"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="40"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -7719,9 +7809,9 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="37"/>
-      <c r="K149" s="37"/>
-      <c r="L149" s="38"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="39"/>
+      <c r="L149" s="40"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -7741,9 +7831,9 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="37"/>
-      <c r="L150" s="38"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="39"/>
+      <c r="L150" s="40"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -7763,9 +7853,9 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="37"/>
-      <c r="K151" s="37"/>
-      <c r="L151" s="38"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="39"/>
+      <c r="L151" s="40"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -7785,9 +7875,9 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="37"/>
-      <c r="K152" s="37"/>
-      <c r="L152" s="38"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="39"/>
+      <c r="L152" s="40"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
@@ -7807,9 +7897,9 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="37"/>
-      <c r="K153" s="37"/>
-      <c r="L153" s="38"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="40"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
@@ -7829,9 +7919,9 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="37"/>
-      <c r="L154" s="38"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="39"/>
+      <c r="L154" s="40"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
@@ -7851,9 +7941,9 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="37"/>
-      <c r="K155" s="37"/>
-      <c r="L155" s="38"/>
+      <c r="J155" s="39"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="40"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
@@ -7873,9 +7963,9 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="37"/>
-      <c r="K156" s="37"/>
-      <c r="L156" s="38"/>
+      <c r="J156" s="39"/>
+      <c r="K156" s="39"/>
+      <c r="L156" s="40"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
@@ -7895,9 +7985,9 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="37"/>
-      <c r="L157" s="38"/>
+      <c r="J157" s="39"/>
+      <c r="K157" s="39"/>
+      <c r="L157" s="40"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
@@ -7917,9 +8007,9 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="37"/>
-      <c r="L158" s="38"/>
+      <c r="J158" s="39"/>
+      <c r="K158" s="39"/>
+      <c r="L158" s="40"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
@@ -7939,9 +8029,9 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="37"/>
-      <c r="K159" s="37"/>
-      <c r="L159" s="38"/>
+      <c r="J159" s="39"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="40"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
@@ -7961,9 +8051,9 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="37"/>
-      <c r="K160" s="37"/>
-      <c r="L160" s="38"/>
+      <c r="J160" s="39"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="40"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
@@ -7983,9 +8073,9 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="37"/>
-      <c r="K161" s="37"/>
-      <c r="L161" s="38"/>
+      <c r="J161" s="39"/>
+      <c r="K161" s="39"/>
+      <c r="L161" s="40"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
@@ -8005,9 +8095,9 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="37"/>
-      <c r="K162" s="37"/>
-      <c r="L162" s="38"/>
+      <c r="J162" s="39"/>
+      <c r="K162" s="39"/>
+      <c r="L162" s="40"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
@@ -8027,9 +8117,9 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="37"/>
-      <c r="K163" s="37"/>
-      <c r="L163" s="38"/>
+      <c r="J163" s="39"/>
+      <c r="K163" s="39"/>
+      <c r="L163" s="40"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
@@ -8049,9 +8139,9 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="37"/>
-      <c r="L164" s="38"/>
+      <c r="J164" s="39"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="40"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
@@ -8071,9 +8161,9 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="37"/>
-      <c r="K165" s="37"/>
-      <c r="L165" s="38"/>
+      <c r="J165" s="39"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="40"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
@@ -8093,9 +8183,9 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="37"/>
-      <c r="K166" s="37"/>
-      <c r="L166" s="38"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="40"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
@@ -8115,9 +8205,9 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="37"/>
-      <c r="K167" s="37"/>
-      <c r="L167" s="38"/>
+      <c r="J167" s="39"/>
+      <c r="K167" s="39"/>
+      <c r="L167" s="40"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
@@ -8137,9 +8227,9 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="37"/>
-      <c r="L168" s="38"/>
+      <c r="J168" s="39"/>
+      <c r="K168" s="39"/>
+      <c r="L168" s="40"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
@@ -8159,9 +8249,9 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="37"/>
-      <c r="K169" s="37"/>
-      <c r="L169" s="38"/>
+      <c r="J169" s="39"/>
+      <c r="K169" s="39"/>
+      <c r="L169" s="40"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
@@ -8181,9 +8271,9 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="37"/>
-      <c r="K170" s="37"/>
-      <c r="L170" s="38"/>
+      <c r="J170" s="39"/>
+      <c r="K170" s="39"/>
+      <c r="L170" s="40"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
@@ -8203,9 +8293,9 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="37"/>
-      <c r="K171" s="37"/>
-      <c r="L171" s="38"/>
+      <c r="J171" s="39"/>
+      <c r="K171" s="39"/>
+      <c r="L171" s="40"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
@@ -8225,9 +8315,9 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="37"/>
-      <c r="K172" s="37"/>
-      <c r="L172" s="38"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="39"/>
+      <c r="L172" s="40"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
@@ -8247,9 +8337,9 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="37"/>
-      <c r="K173" s="37"/>
-      <c r="L173" s="38"/>
+      <c r="J173" s="39"/>
+      <c r="K173" s="39"/>
+      <c r="L173" s="40"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
@@ -8269,9 +8359,9 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="37"/>
-      <c r="K174" s="37"/>
-      <c r="L174" s="38"/>
+      <c r="J174" s="39"/>
+      <c r="K174" s="39"/>
+      <c r="L174" s="40"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
@@ -8291,9 +8381,9 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="37"/>
-      <c r="K175" s="37"/>
-      <c r="L175" s="38"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="40"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
@@ -8313,9 +8403,9 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="37"/>
-      <c r="K176" s="37"/>
-      <c r="L176" s="38"/>
+      <c r="J176" s="39"/>
+      <c r="K176" s="39"/>
+      <c r="L176" s="40"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
@@ -8335,9 +8425,9 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="37"/>
-      <c r="K177" s="37"/>
-      <c r="L177" s="38"/>
+      <c r="J177" s="39"/>
+      <c r="K177" s="39"/>
+      <c r="L177" s="40"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
@@ -8357,9 +8447,9 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="37"/>
-      <c r="K178" s="37"/>
-      <c r="L178" s="38"/>
+      <c r="J178" s="39"/>
+      <c r="K178" s="39"/>
+      <c r="L178" s="40"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
@@ -8379,9 +8469,9 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="37"/>
-      <c r="K179" s="37"/>
-      <c r="L179" s="38"/>
+      <c r="J179" s="39"/>
+      <c r="K179" s="39"/>
+      <c r="L179" s="40"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
@@ -8401,9 +8491,9 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="37"/>
-      <c r="K180" s="37"/>
-      <c r="L180" s="38"/>
+      <c r="J180" s="39"/>
+      <c r="K180" s="39"/>
+      <c r="L180" s="40"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
@@ -8423,9 +8513,9 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="37"/>
-      <c r="K181" s="37"/>
-      <c r="L181" s="38"/>
+      <c r="J181" s="39"/>
+      <c r="K181" s="39"/>
+      <c r="L181" s="40"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
@@ -8445,9 +8535,9 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="37"/>
-      <c r="K182" s="37"/>
-      <c r="L182" s="38"/>
+      <c r="J182" s="39"/>
+      <c r="K182" s="39"/>
+      <c r="L182" s="40"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
@@ -8467,9 +8557,9 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="37"/>
-      <c r="K183" s="37"/>
-      <c r="L183" s="38"/>
+      <c r="J183" s="39"/>
+      <c r="K183" s="39"/>
+      <c r="L183" s="40"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
@@ -8489,9 +8579,9 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="37"/>
-      <c r="K184" s="37"/>
-      <c r="L184" s="38"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="39"/>
+      <c r="L184" s="40"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
@@ -8511,9 +8601,9 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="37"/>
-      <c r="K185" s="37"/>
-      <c r="L185" s="38"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="39"/>
+      <c r="L185" s="40"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
@@ -8533,9 +8623,9 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="37"/>
-      <c r="K186" s="37"/>
-      <c r="L186" s="38"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="39"/>
+      <c r="L186" s="40"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
@@ -8555,9 +8645,9 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="37"/>
-      <c r="K187" s="37"/>
-      <c r="L187" s="38"/>
+      <c r="J187" s="39"/>
+      <c r="K187" s="39"/>
+      <c r="L187" s="40"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
@@ -8577,9 +8667,9 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="37"/>
-      <c r="K188" s="37"/>
-      <c r="L188" s="38"/>
+      <c r="J188" s="39"/>
+      <c r="K188" s="39"/>
+      <c r="L188" s="40"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
@@ -8599,9 +8689,9 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="37"/>
-      <c r="K189" s="37"/>
-      <c r="L189" s="38"/>
+      <c r="J189" s="39"/>
+      <c r="K189" s="39"/>
+      <c r="L189" s="40"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
@@ -8621,9 +8711,9 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="37"/>
-      <c r="K190" s="37"/>
-      <c r="L190" s="38"/>
+      <c r="J190" s="39"/>
+      <c r="K190" s="39"/>
+      <c r="L190" s="40"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
@@ -8643,9 +8733,9 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="37"/>
-      <c r="K191" s="37"/>
-      <c r="L191" s="38"/>
+      <c r="J191" s="39"/>
+      <c r="K191" s="39"/>
+      <c r="L191" s="40"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
@@ -8665,9 +8755,9 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="37"/>
-      <c r="K192" s="37"/>
-      <c r="L192" s="38"/>
+      <c r="J192" s="39"/>
+      <c r="K192" s="39"/>
+      <c r="L192" s="40"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
@@ -8687,9 +8777,9 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="37"/>
-      <c r="K193" s="37"/>
-      <c r="L193" s="38"/>
+      <c r="J193" s="39"/>
+      <c r="K193" s="39"/>
+      <c r="L193" s="40"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
@@ -8709,9 +8799,9 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="37"/>
-      <c r="K194" s="37"/>
-      <c r="L194" s="38"/>
+      <c r="J194" s="39"/>
+      <c r="K194" s="39"/>
+      <c r="L194" s="40"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
@@ -8731,9 +8821,9 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="37"/>
-      <c r="K195" s="37"/>
-      <c r="L195" s="38"/>
+      <c r="J195" s="39"/>
+      <c r="K195" s="39"/>
+      <c r="L195" s="40"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
@@ -8753,9 +8843,9 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="37"/>
-      <c r="K196" s="37"/>
-      <c r="L196" s="38"/>
+      <c r="J196" s="39"/>
+      <c r="K196" s="39"/>
+      <c r="L196" s="40"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
@@ -8775,9 +8865,9 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="37"/>
-      <c r="K197" s="37"/>
-      <c r="L197" s="38"/>
+      <c r="J197" s="39"/>
+      <c r="K197" s="39"/>
+      <c r="L197" s="40"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
@@ -8797,9 +8887,9 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="37"/>
-      <c r="K198" s="37"/>
-      <c r="L198" s="38"/>
+      <c r="J198" s="39"/>
+      <c r="K198" s="39"/>
+      <c r="L198" s="40"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
@@ -8819,9 +8909,9 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="37"/>
-      <c r="K199" s="37"/>
-      <c r="L199" s="38"/>
+      <c r="J199" s="39"/>
+      <c r="K199" s="39"/>
+      <c r="L199" s="40"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
@@ -8841,9 +8931,9 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="37"/>
-      <c r="K200" s="37"/>
-      <c r="L200" s="38"/>
+      <c r="J200" s="39"/>
+      <c r="K200" s="39"/>
+      <c r="L200" s="40"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -8863,9 +8953,9 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="37"/>
-      <c r="K201" s="37"/>
-      <c r="L201" s="38"/>
+      <c r="J201" s="39"/>
+      <c r="K201" s="39"/>
+      <c r="L201" s="40"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
@@ -8885,9 +8975,9 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="37"/>
-      <c r="K202" s="37"/>
-      <c r="L202" s="38"/>
+      <c r="J202" s="39"/>
+      <c r="K202" s="39"/>
+      <c r="L202" s="40"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
@@ -8907,9 +8997,9 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="37"/>
-      <c r="K203" s="37"/>
-      <c r="L203" s="38"/>
+      <c r="J203" s="39"/>
+      <c r="K203" s="39"/>
+      <c r="L203" s="40"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
@@ -8929,9 +9019,9 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="37"/>
-      <c r="K204" s="37"/>
-      <c r="L204" s="38"/>
+      <c r="J204" s="39"/>
+      <c r="K204" s="39"/>
+      <c r="L204" s="40"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
@@ -8951,9 +9041,9 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="37"/>
-      <c r="K205" s="37"/>
-      <c r="L205" s="38"/>
+      <c r="J205" s="39"/>
+      <c r="K205" s="39"/>
+      <c r="L205" s="40"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
@@ -8973,9 +9063,9 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="37"/>
-      <c r="K206" s="37"/>
-      <c r="L206" s="38"/>
+      <c r="J206" s="39"/>
+      <c r="K206" s="39"/>
+      <c r="L206" s="40"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
@@ -8995,9 +9085,9 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="37"/>
-      <c r="K207" s="37"/>
-      <c r="L207" s="38"/>
+      <c r="J207" s="39"/>
+      <c r="K207" s="39"/>
+      <c r="L207" s="40"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
@@ -9017,9 +9107,9 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="37"/>
-      <c r="K208" s="37"/>
-      <c r="L208" s="38"/>
+      <c r="J208" s="39"/>
+      <c r="K208" s="39"/>
+      <c r="L208" s="40"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
@@ -9039,9 +9129,9 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="37"/>
-      <c r="K209" s="37"/>
-      <c r="L209" s="38"/>
+      <c r="J209" s="39"/>
+      <c r="K209" s="39"/>
+      <c r="L209" s="40"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -9061,9 +9151,9 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="37"/>
-      <c r="K210" s="37"/>
-      <c r="L210" s="38"/>
+      <c r="J210" s="39"/>
+      <c r="K210" s="39"/>
+      <c r="L210" s="40"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -9083,9 +9173,9 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="37"/>
-      <c r="K211" s="37"/>
-      <c r="L211" s="38"/>
+      <c r="J211" s="39"/>
+      <c r="K211" s="39"/>
+      <c r="L211" s="40"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -9105,9 +9195,9 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="37"/>
-      <c r="K212" s="37"/>
-      <c r="L212" s="38"/>
+      <c r="J212" s="39"/>
+      <c r="K212" s="39"/>
+      <c r="L212" s="40"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -9127,9 +9217,9 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="37"/>
-      <c r="K213" s="37"/>
-      <c r="L213" s="38"/>
+      <c r="J213" s="39"/>
+      <c r="K213" s="39"/>
+      <c r="L213" s="40"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -9149,9 +9239,9 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="37"/>
-      <c r="K214" s="37"/>
-      <c r="L214" s="38"/>
+      <c r="J214" s="39"/>
+      <c r="K214" s="39"/>
+      <c r="L214" s="40"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -9171,9 +9261,9 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="37"/>
-      <c r="K215" s="37"/>
-      <c r="L215" s="38"/>
+      <c r="J215" s="39"/>
+      <c r="K215" s="39"/>
+      <c r="L215" s="40"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -9193,9 +9283,9 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="37"/>
-      <c r="K216" s="37"/>
-      <c r="L216" s="38"/>
+      <c r="J216" s="39"/>
+      <c r="K216" s="39"/>
+      <c r="L216" s="40"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
@@ -9215,9 +9305,9 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="37"/>
-      <c r="K217" s="37"/>
-      <c r="L217" s="38"/>
+      <c r="J217" s="39"/>
+      <c r="K217" s="39"/>
+      <c r="L217" s="40"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
@@ -9237,9 +9327,9 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="37"/>
-      <c r="K218" s="37"/>
-      <c r="L218" s="38"/>
+      <c r="J218" s="39"/>
+      <c r="K218" s="39"/>
+      <c r="L218" s="40"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
@@ -9259,9 +9349,9 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="37"/>
-      <c r="K219" s="37"/>
-      <c r="L219" s="38"/>
+      <c r="J219" s="39"/>
+      <c r="K219" s="39"/>
+      <c r="L219" s="40"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
@@ -9281,9 +9371,9 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="37"/>
-      <c r="K220" s="37"/>
-      <c r="L220" s="38"/>
+      <c r="J220" s="39"/>
+      <c r="K220" s="39"/>
+      <c r="L220" s="40"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
@@ -9303,9 +9393,9 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="37"/>
-      <c r="K221" s="37"/>
-      <c r="L221" s="38"/>
+      <c r="J221" s="39"/>
+      <c r="K221" s="39"/>
+      <c r="L221" s="40"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
@@ -9325,9 +9415,9 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="37"/>
-      <c r="K222" s="37"/>
-      <c r="L222" s="38"/>
+      <c r="J222" s="39"/>
+      <c r="K222" s="39"/>
+      <c r="L222" s="40"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
@@ -9347,9 +9437,9 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="37"/>
-      <c r="K223" s="37"/>
-      <c r="L223" s="38"/>
+      <c r="J223" s="39"/>
+      <c r="K223" s="39"/>
+      <c r="L223" s="40"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
@@ -9369,9 +9459,9 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="I224" s="1"/>
-      <c r="J224" s="37"/>
-      <c r="K224" s="37"/>
-      <c r="L224" s="38"/>
+      <c r="J224" s="39"/>
+      <c r="K224" s="39"/>
+      <c r="L224" s="40"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
@@ -9391,9 +9481,9 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="I225" s="1"/>
-      <c r="J225" s="37"/>
-      <c r="K225" s="37"/>
-      <c r="L225" s="38"/>
+      <c r="J225" s="39"/>
+      <c r="K225" s="39"/>
+      <c r="L225" s="40"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
@@ -9413,9 +9503,9 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="I226" s="1"/>
-      <c r="J226" s="37"/>
-      <c r="K226" s="37"/>
-      <c r="L226" s="38"/>
+      <c r="J226" s="39"/>
+      <c r="K226" s="39"/>
+      <c r="L226" s="40"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -9435,9 +9525,9 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="I227" s="1"/>
-      <c r="J227" s="37"/>
-      <c r="K227" s="37"/>
-      <c r="L227" s="38"/>
+      <c r="J227" s="39"/>
+      <c r="K227" s="39"/>
+      <c r="L227" s="40"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
@@ -9457,9 +9547,9 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="I228" s="1"/>
-      <c r="J228" s="37"/>
-      <c r="K228" s="37"/>
-      <c r="L228" s="38"/>
+      <c r="J228" s="39"/>
+      <c r="K228" s="39"/>
+      <c r="L228" s="40"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
@@ -9479,9 +9569,9 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="I229" s="1"/>
-      <c r="J229" s="37"/>
-      <c r="K229" s="37"/>
-      <c r="L229" s="38"/>
+      <c r="J229" s="39"/>
+      <c r="K229" s="39"/>
+      <c r="L229" s="40"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
@@ -9501,9 +9591,9 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="I230" s="1"/>
-      <c r="J230" s="37"/>
-      <c r="K230" s="37"/>
-      <c r="L230" s="38"/>
+      <c r="J230" s="39"/>
+      <c r="K230" s="39"/>
+      <c r="L230" s="40"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
@@ -9523,9 +9613,9 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="I231" s="1"/>
-      <c r="J231" s="37"/>
-      <c r="K231" s="37"/>
-      <c r="L231" s="38"/>
+      <c r="J231" s="39"/>
+      <c r="K231" s="39"/>
+      <c r="L231" s="40"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
@@ -9545,9 +9635,9 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="I232" s="1"/>
-      <c r="J232" s="37"/>
-      <c r="K232" s="37"/>
-      <c r="L232" s="38"/>
+      <c r="J232" s="39"/>
+      <c r="K232" s="39"/>
+      <c r="L232" s="40"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
@@ -9567,9 +9657,9 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="I233" s="1"/>
-      <c r="J233" s="37"/>
-      <c r="K233" s="37"/>
-      <c r="L233" s="38"/>
+      <c r="J233" s="39"/>
+      <c r="K233" s="39"/>
+      <c r="L233" s="40"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
@@ -9589,9 +9679,9 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="I234" s="1"/>
-      <c r="J234" s="37"/>
-      <c r="K234" s="37"/>
-      <c r="L234" s="38"/>
+      <c r="J234" s="39"/>
+      <c r="K234" s="39"/>
+      <c r="L234" s="40"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
@@ -9611,9 +9701,9 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
-      <c r="J235" s="37"/>
-      <c r="K235" s="37"/>
-      <c r="L235" s="38"/>
+      <c r="J235" s="39"/>
+      <c r="K235" s="39"/>
+      <c r="L235" s="40"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
@@ -9633,9 +9723,9 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="I236" s="1"/>
-      <c r="J236" s="37"/>
-      <c r="K236" s="37"/>
-      <c r="L236" s="38"/>
+      <c r="J236" s="39"/>
+      <c r="K236" s="39"/>
+      <c r="L236" s="40"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
@@ -9655,9 +9745,9 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
-      <c r="J237" s="37"/>
-      <c r="K237" s="37"/>
-      <c r="L237" s="38"/>
+      <c r="J237" s="39"/>
+      <c r="K237" s="39"/>
+      <c r="L237" s="40"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
@@ -9677,9 +9767,9 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="I238" s="1"/>
-      <c r="J238" s="37"/>
-      <c r="K238" s="37"/>
-      <c r="L238" s="38"/>
+      <c r="J238" s="39"/>
+      <c r="K238" s="39"/>
+      <c r="L238" s="40"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
@@ -9699,9 +9789,9 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="I239" s="1"/>
-      <c r="J239" s="37"/>
-      <c r="K239" s="37"/>
-      <c r="L239" s="38"/>
+      <c r="J239" s="39"/>
+      <c r="K239" s="39"/>
+      <c r="L239" s="40"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
@@ -9721,9 +9811,9 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="I240" s="1"/>
-      <c r="J240" s="37"/>
-      <c r="K240" s="37"/>
-      <c r="L240" s="38"/>
+      <c r="J240" s="39"/>
+      <c r="K240" s="39"/>
+      <c r="L240" s="40"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
@@ -9743,9 +9833,9 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="I241" s="1"/>
-      <c r="J241" s="37"/>
-      <c r="K241" s="37"/>
-      <c r="L241" s="38"/>
+      <c r="J241" s="39"/>
+      <c r="K241" s="39"/>
+      <c r="L241" s="40"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
@@ -9765,9 +9855,9 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="I242" s="1"/>
-      <c r="J242" s="37"/>
-      <c r="K242" s="37"/>
-      <c r="L242" s="38"/>
+      <c r="J242" s="39"/>
+      <c r="K242" s="39"/>
+      <c r="L242" s="40"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
@@ -9787,9 +9877,9 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="I243" s="1"/>
-      <c r="J243" s="37"/>
-      <c r="K243" s="37"/>
-      <c r="L243" s="38"/>
+      <c r="J243" s="39"/>
+      <c r="K243" s="39"/>
+      <c r="L243" s="40"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
@@ -9809,9 +9899,9 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="I244" s="1"/>
-      <c r="J244" s="37"/>
-      <c r="K244" s="37"/>
-      <c r="L244" s="38"/>
+      <c r="J244" s="39"/>
+      <c r="K244" s="39"/>
+      <c r="L244" s="40"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
@@ -9831,9 +9921,9 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="I245" s="1"/>
-      <c r="J245" s="37"/>
-      <c r="K245" s="37"/>
-      <c r="L245" s="38"/>
+      <c r="J245" s="39"/>
+      <c r="K245" s="39"/>
+      <c r="L245" s="40"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
@@ -9853,9 +9943,9 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="I246" s="1"/>
-      <c r="J246" s="37"/>
-      <c r="K246" s="37"/>
-      <c r="L246" s="38"/>
+      <c r="J246" s="39"/>
+      <c r="K246" s="39"/>
+      <c r="L246" s="40"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
@@ -9875,9 +9965,9 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="I247" s="1"/>
-      <c r="J247" s="37"/>
-      <c r="K247" s="37"/>
-      <c r="L247" s="38"/>
+      <c r="J247" s="39"/>
+      <c r="K247" s="39"/>
+      <c r="L247" s="40"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
@@ -9897,9 +9987,9 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="I248" s="1"/>
-      <c r="J248" s="37"/>
-      <c r="K248" s="37"/>
-      <c r="L248" s="38"/>
+      <c r="J248" s="39"/>
+      <c r="K248" s="39"/>
+      <c r="L248" s="40"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
@@ -9919,9 +10009,9 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="I249" s="1"/>
-      <c r="J249" s="37"/>
-      <c r="K249" s="37"/>
-      <c r="L249" s="38"/>
+      <c r="J249" s="39"/>
+      <c r="K249" s="39"/>
+      <c r="L249" s="40"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
@@ -9941,9 +10031,9 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="I250" s="1"/>
-      <c r="J250" s="37"/>
-      <c r="K250" s="37"/>
-      <c r="L250" s="38"/>
+      <c r="J250" s="39"/>
+      <c r="K250" s="39"/>
+      <c r="L250" s="40"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
@@ -9963,9 +10053,9 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="I251" s="1"/>
-      <c r="J251" s="37"/>
-      <c r="K251" s="37"/>
-      <c r="L251" s="38"/>
+      <c r="J251" s="39"/>
+      <c r="K251" s="39"/>
+      <c r="L251" s="40"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
@@ -9985,9 +10075,9 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="I252" s="1"/>
-      <c r="J252" s="37"/>
-      <c r="K252" s="37"/>
-      <c r="L252" s="38"/>
+      <c r="J252" s="39"/>
+      <c r="K252" s="39"/>
+      <c r="L252" s="40"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
@@ -10007,9 +10097,9 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="I253" s="1"/>
-      <c r="J253" s="37"/>
-      <c r="K253" s="37"/>
-      <c r="L253" s="38"/>
+      <c r="J253" s="39"/>
+      <c r="K253" s="39"/>
+      <c r="L253" s="40"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
@@ -10029,9 +10119,9 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="I254" s="1"/>
-      <c r="J254" s="37"/>
-      <c r="K254" s="37"/>
-      <c r="L254" s="38"/>
+      <c r="J254" s="39"/>
+      <c r="K254" s="39"/>
+      <c r="L254" s="40"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
@@ -10051,9 +10141,9 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="I255" s="1"/>
-      <c r="J255" s="37"/>
-      <c r="K255" s="37"/>
-      <c r="L255" s="38"/>
+      <c r="J255" s="39"/>
+      <c r="K255" s="39"/>
+      <c r="L255" s="40"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
@@ -10073,9 +10163,9 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="I256" s="1"/>
-      <c r="J256" s="37"/>
-      <c r="K256" s="37"/>
-      <c r="L256" s="38"/>
+      <c r="J256" s="39"/>
+      <c r="K256" s="39"/>
+      <c r="L256" s="40"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
@@ -10095,9 +10185,9 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="I257" s="1"/>
-      <c r="J257" s="37"/>
-      <c r="K257" s="37"/>
-      <c r="L257" s="38"/>
+      <c r="J257" s="39"/>
+      <c r="K257" s="39"/>
+      <c r="L257" s="40"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -10117,9 +10207,9 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="I258" s="1"/>
-      <c r="J258" s="37"/>
-      <c r="K258" s="37"/>
-      <c r="L258" s="38"/>
+      <c r="J258" s="39"/>
+      <c r="K258" s="39"/>
+      <c r="L258" s="40"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
@@ -10139,9 +10229,9 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="I259" s="1"/>
-      <c r="J259" s="37"/>
-      <c r="K259" s="37"/>
-      <c r="L259" s="38"/>
+      <c r="J259" s="39"/>
+      <c r="K259" s="39"/>
+      <c r="L259" s="40"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
@@ -10161,9 +10251,9 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="I260" s="1"/>
-      <c r="J260" s="37"/>
-      <c r="K260" s="37"/>
-      <c r="L260" s="38"/>
+      <c r="J260" s="39"/>
+      <c r="K260" s="39"/>
+      <c r="L260" s="40"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
@@ -10183,9 +10273,9 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="I261" s="1"/>
-      <c r="J261" s="37"/>
-      <c r="K261" s="37"/>
-      <c r="L261" s="38"/>
+      <c r="J261" s="39"/>
+      <c r="K261" s="39"/>
+      <c r="L261" s="40"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
@@ -10205,9 +10295,9 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="I262" s="1"/>
-      <c r="J262" s="37"/>
-      <c r="K262" s="37"/>
-      <c r="L262" s="38"/>
+      <c r="J262" s="39"/>
+      <c r="K262" s="39"/>
+      <c r="L262" s="40"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
@@ -10227,9 +10317,9 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="I263" s="1"/>
-      <c r="J263" s="37"/>
-      <c r="K263" s="37"/>
-      <c r="L263" s="38"/>
+      <c r="J263" s="39"/>
+      <c r="K263" s="39"/>
+      <c r="L263" s="40"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
@@ -10249,9 +10339,9 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="I264" s="1"/>
-      <c r="J264" s="37"/>
-      <c r="K264" s="37"/>
-      <c r="L264" s="38"/>
+      <c r="J264" s="39"/>
+      <c r="K264" s="39"/>
+      <c r="L264" s="40"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
@@ -10271,9 +10361,9 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="I265" s="1"/>
-      <c r="J265" s="37"/>
-      <c r="K265" s="37"/>
-      <c r="L265" s="38"/>
+      <c r="J265" s="39"/>
+      <c r="K265" s="39"/>
+      <c r="L265" s="40"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
@@ -10293,9 +10383,9 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="I266" s="1"/>
-      <c r="J266" s="37"/>
-      <c r="K266" s="37"/>
-      <c r="L266" s="38"/>
+      <c r="J266" s="39"/>
+      <c r="K266" s="39"/>
+      <c r="L266" s="40"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
@@ -10315,9 +10405,9 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="I267" s="1"/>
-      <c r="J267" s="37"/>
-      <c r="K267" s="37"/>
-      <c r="L267" s="38"/>
+      <c r="J267" s="39"/>
+      <c r="K267" s="39"/>
+      <c r="L267" s="40"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
@@ -10337,9 +10427,9 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="I268" s="1"/>
-      <c r="J268" s="37"/>
-      <c r="K268" s="37"/>
-      <c r="L268" s="38"/>
+      <c r="J268" s="39"/>
+      <c r="K268" s="39"/>
+      <c r="L268" s="40"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
@@ -10359,9 +10449,9 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="I269" s="1"/>
-      <c r="J269" s="37"/>
-      <c r="K269" s="37"/>
-      <c r="L269" s="38"/>
+      <c r="J269" s="39"/>
+      <c r="K269" s="39"/>
+      <c r="L269" s="40"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
@@ -10381,9 +10471,9 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="I270" s="1"/>
-      <c r="J270" s="37"/>
-      <c r="K270" s="37"/>
-      <c r="L270" s="38"/>
+      <c r="J270" s="39"/>
+      <c r="K270" s="39"/>
+      <c r="L270" s="40"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
@@ -10403,9 +10493,9 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="I271" s="1"/>
-      <c r="J271" s="37"/>
-      <c r="K271" s="37"/>
-      <c r="L271" s="38"/>
+      <c r="J271" s="39"/>
+      <c r="K271" s="39"/>
+      <c r="L271" s="40"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
@@ -10425,9 +10515,9 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="I272" s="1"/>
-      <c r="J272" s="37"/>
-      <c r="K272" s="37"/>
-      <c r="L272" s="38"/>
+      <c r="J272" s="39"/>
+      <c r="K272" s="39"/>
+      <c r="L272" s="40"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
@@ -10447,9 +10537,9 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="I273" s="1"/>
-      <c r="J273" s="37"/>
-      <c r="K273" s="37"/>
-      <c r="L273" s="38"/>
+      <c r="J273" s="39"/>
+      <c r="K273" s="39"/>
+      <c r="L273" s="40"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
@@ -10469,9 +10559,9 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="I274" s="1"/>
-      <c r="J274" s="37"/>
-      <c r="K274" s="37"/>
-      <c r="L274" s="38"/>
+      <c r="J274" s="39"/>
+      <c r="K274" s="39"/>
+      <c r="L274" s="40"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
@@ -10491,9 +10581,9 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="I275" s="1"/>
-      <c r="J275" s="37"/>
-      <c r="K275" s="37"/>
-      <c r="L275" s="38"/>
+      <c r="J275" s="39"/>
+      <c r="K275" s="39"/>
+      <c r="L275" s="40"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
@@ -10513,9 +10603,9 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="I276" s="1"/>
-      <c r="J276" s="37"/>
-      <c r="K276" s="37"/>
-      <c r="L276" s="38"/>
+      <c r="J276" s="39"/>
+      <c r="K276" s="39"/>
+      <c r="L276" s="40"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
@@ -10535,9 +10625,9 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="I277" s="1"/>
-      <c r="J277" s="37"/>
-      <c r="K277" s="37"/>
-      <c r="L277" s="38"/>
+      <c r="J277" s="39"/>
+      <c r="K277" s="39"/>
+      <c r="L277" s="40"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
@@ -10557,9 +10647,9 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="I278" s="1"/>
-      <c r="J278" s="37"/>
-      <c r="K278" s="37"/>
-      <c r="L278" s="38"/>
+      <c r="J278" s="39"/>
+      <c r="K278" s="39"/>
+      <c r="L278" s="40"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
@@ -10579,9 +10669,9 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="I279" s="1"/>
-      <c r="J279" s="37"/>
-      <c r="K279" s="37"/>
-      <c r="L279" s="38"/>
+      <c r="J279" s="39"/>
+      <c r="K279" s="39"/>
+      <c r="L279" s="40"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
@@ -10601,9 +10691,9 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="I280" s="1"/>
-      <c r="J280" s="37"/>
-      <c r="K280" s="37"/>
-      <c r="L280" s="38"/>
+      <c r="J280" s="39"/>
+      <c r="K280" s="39"/>
+      <c r="L280" s="40"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
@@ -10623,9 +10713,9 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="I281" s="1"/>
-      <c r="J281" s="37"/>
-      <c r="K281" s="37"/>
-      <c r="L281" s="38"/>
+      <c r="J281" s="39"/>
+      <c r="K281" s="39"/>
+      <c r="L281" s="40"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
@@ -10645,9 +10735,9 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="I282" s="1"/>
-      <c r="J282" s="37"/>
-      <c r="K282" s="37"/>
-      <c r="L282" s="38"/>
+      <c r="J282" s="39"/>
+      <c r="K282" s="39"/>
+      <c r="L282" s="40"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
@@ -10667,9 +10757,9 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
-      <c r="J283" s="37"/>
-      <c r="K283" s="37"/>
-      <c r="L283" s="38"/>
+      <c r="J283" s="39"/>
+      <c r="K283" s="39"/>
+      <c r="L283" s="40"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
@@ -10689,9 +10779,9 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="I284" s="1"/>
-      <c r="J284" s="37"/>
-      <c r="K284" s="37"/>
-      <c r="L284" s="38"/>
+      <c r="J284" s="39"/>
+      <c r="K284" s="39"/>
+      <c r="L284" s="40"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
@@ -10711,9 +10801,9 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="I285" s="1"/>
-      <c r="J285" s="37"/>
-      <c r="K285" s="37"/>
-      <c r="L285" s="38"/>
+      <c r="J285" s="39"/>
+      <c r="K285" s="39"/>
+      <c r="L285" s="40"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
@@ -10733,9 +10823,9 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="I286" s="1"/>
-      <c r="J286" s="37"/>
-      <c r="K286" s="37"/>
-      <c r="L286" s="38"/>
+      <c r="J286" s="39"/>
+      <c r="K286" s="39"/>
+      <c r="L286" s="40"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
@@ -10755,9 +10845,9 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="I287" s="1"/>
-      <c r="J287" s="37"/>
-      <c r="K287" s="37"/>
-      <c r="L287" s="38"/>
+      <c r="J287" s="39"/>
+      <c r="K287" s="39"/>
+      <c r="L287" s="40"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
@@ -10777,9 +10867,9 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="I288" s="1"/>
-      <c r="J288" s="37"/>
-      <c r="K288" s="37"/>
-      <c r="L288" s="38"/>
+      <c r="J288" s="39"/>
+      <c r="K288" s="39"/>
+      <c r="L288" s="40"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
@@ -10799,9 +10889,9 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="I289" s="1"/>
-      <c r="J289" s="37"/>
-      <c r="K289" s="37"/>
-      <c r="L289" s="38"/>
+      <c r="J289" s="39"/>
+      <c r="K289" s="39"/>
+      <c r="L289" s="40"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
@@ -10821,9 +10911,9 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="I290" s="1"/>
-      <c r="J290" s="37"/>
-      <c r="K290" s="37"/>
-      <c r="L290" s="38"/>
+      <c r="J290" s="39"/>
+      <c r="K290" s="39"/>
+      <c r="L290" s="40"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
@@ -10843,9 +10933,9 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="I291" s="1"/>
-      <c r="J291" s="37"/>
-      <c r="K291" s="37"/>
-      <c r="L291" s="38"/>
+      <c r="J291" s="39"/>
+      <c r="K291" s="39"/>
+      <c r="L291" s="40"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
@@ -10865,9 +10955,9 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="I292" s="1"/>
-      <c r="J292" s="37"/>
-      <c r="K292" s="37"/>
-      <c r="L292" s="38"/>
+      <c r="J292" s="39"/>
+      <c r="K292" s="39"/>
+      <c r="L292" s="40"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
@@ -10887,9 +10977,9 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="I293" s="1"/>
-      <c r="J293" s="37"/>
-      <c r="K293" s="37"/>
-      <c r="L293" s="38"/>
+      <c r="J293" s="39"/>
+      <c r="K293" s="39"/>
+      <c r="L293" s="40"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
@@ -10909,9 +10999,9 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="I294" s="1"/>
-      <c r="J294" s="37"/>
-      <c r="K294" s="37"/>
-      <c r="L294" s="38"/>
+      <c r="J294" s="39"/>
+      <c r="K294" s="39"/>
+      <c r="L294" s="40"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
@@ -10931,9 +11021,9 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="I295" s="1"/>
-      <c r="J295" s="37"/>
-      <c r="K295" s="37"/>
-      <c r="L295" s="38"/>
+      <c r="J295" s="39"/>
+      <c r="K295" s="39"/>
+      <c r="L295" s="40"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
@@ -10953,9 +11043,9 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="I296" s="1"/>
-      <c r="J296" s="37"/>
-      <c r="K296" s="37"/>
-      <c r="L296" s="38"/>
+      <c r="J296" s="39"/>
+      <c r="K296" s="39"/>
+      <c r="L296" s="40"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
@@ -10975,9 +11065,9 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="I297" s="1"/>
-      <c r="J297" s="37"/>
-      <c r="K297" s="37"/>
-      <c r="L297" s="38"/>
+      <c r="J297" s="39"/>
+      <c r="K297" s="39"/>
+      <c r="L297" s="40"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
@@ -10997,9 +11087,9 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="I298" s="1"/>
-      <c r="J298" s="37"/>
-      <c r="K298" s="37"/>
-      <c r="L298" s="38"/>
+      <c r="J298" s="39"/>
+      <c r="K298" s="39"/>
+      <c r="L298" s="40"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
@@ -11019,9 +11109,9 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="I299" s="1"/>
-      <c r="J299" s="37"/>
-      <c r="K299" s="37"/>
-      <c r="L299" s="38"/>
+      <c r="J299" s="39"/>
+      <c r="K299" s="39"/>
+      <c r="L299" s="40"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
@@ -11041,9 +11131,9 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="I300" s="1"/>
-      <c r="J300" s="37"/>
-      <c r="K300" s="37"/>
-      <c r="L300" s="38"/>
+      <c r="J300" s="39"/>
+      <c r="K300" s="39"/>
+      <c r="L300" s="40"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
@@ -11063,9 +11153,9 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="I301" s="1"/>
-      <c r="J301" s="37"/>
-      <c r="K301" s="37"/>
-      <c r="L301" s="38"/>
+      <c r="J301" s="39"/>
+      <c r="K301" s="39"/>
+      <c r="L301" s="40"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
@@ -11085,9 +11175,9 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="I302" s="1"/>
-      <c r="J302" s="37"/>
-      <c r="K302" s="37"/>
-      <c r="L302" s="38"/>
+      <c r="J302" s="39"/>
+      <c r="K302" s="39"/>
+      <c r="L302" s="40"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
@@ -11107,9 +11197,9 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="I303" s="1"/>
-      <c r="J303" s="37"/>
-      <c r="K303" s="37"/>
-      <c r="L303" s="38"/>
+      <c r="J303" s="39"/>
+      <c r="K303" s="39"/>
+      <c r="L303" s="40"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
@@ -11129,9 +11219,9 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="I304" s="1"/>
-      <c r="J304" s="37"/>
-      <c r="K304" s="37"/>
-      <c r="L304" s="38"/>
+      <c r="J304" s="39"/>
+      <c r="K304" s="39"/>
+      <c r="L304" s="40"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
@@ -11151,9 +11241,9 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="37"/>
-      <c r="K305" s="37"/>
-      <c r="L305" s="38"/>
+      <c r="J305" s="39"/>
+      <c r="K305" s="39"/>
+      <c r="L305" s="40"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
@@ -11173,9 +11263,9 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="37"/>
-      <c r="K306" s="37"/>
-      <c r="L306" s="38"/>
+      <c r="J306" s="39"/>
+      <c r="K306" s="39"/>
+      <c r="L306" s="40"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
@@ -11195,9 +11285,9 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="37"/>
-      <c r="K307" s="37"/>
-      <c r="L307" s="38"/>
+      <c r="J307" s="39"/>
+      <c r="K307" s="39"/>
+      <c r="L307" s="40"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
@@ -11217,9 +11307,9 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="I308" s="1"/>
-      <c r="J308" s="37"/>
-      <c r="K308" s="37"/>
-      <c r="L308" s="38"/>
+      <c r="J308" s="39"/>
+      <c r="K308" s="39"/>
+      <c r="L308" s="40"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
@@ -11239,9 +11329,9 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="I309" s="1"/>
-      <c r="J309" s="37"/>
-      <c r="K309" s="37"/>
-      <c r="L309" s="38"/>
+      <c r="J309" s="39"/>
+      <c r="K309" s="39"/>
+      <c r="L309" s="40"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
@@ -11261,9 +11351,9 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="I310" s="1"/>
-      <c r="J310" s="37"/>
-      <c r="K310" s="37"/>
-      <c r="L310" s="38"/>
+      <c r="J310" s="39"/>
+      <c r="K310" s="39"/>
+      <c r="L310" s="40"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
@@ -11283,9 +11373,9 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="I311" s="1"/>
-      <c r="J311" s="37"/>
-      <c r="K311" s="37"/>
-      <c r="L311" s="38"/>
+      <c r="J311" s="39"/>
+      <c r="K311" s="39"/>
+      <c r="L311" s="40"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
@@ -11305,9 +11395,9 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="I312" s="1"/>
-      <c r="J312" s="37"/>
-      <c r="K312" s="37"/>
-      <c r="L312" s="38"/>
+      <c r="J312" s="39"/>
+      <c r="K312" s="39"/>
+      <c r="L312" s="40"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
@@ -11327,9 +11417,9 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="I313" s="1"/>
-      <c r="J313" s="37"/>
-      <c r="K313" s="37"/>
-      <c r="L313" s="38"/>
+      <c r="J313" s="39"/>
+      <c r="K313" s="39"/>
+      <c r="L313" s="40"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
@@ -11349,9 +11439,9 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="I314" s="1"/>
-      <c r="J314" s="37"/>
-      <c r="K314" s="37"/>
-      <c r="L314" s="38"/>
+      <c r="J314" s="39"/>
+      <c r="K314" s="39"/>
+      <c r="L314" s="40"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
@@ -11371,9 +11461,9 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="I315" s="1"/>
-      <c r="J315" s="37"/>
-      <c r="K315" s="37"/>
-      <c r="L315" s="38"/>
+      <c r="J315" s="39"/>
+      <c r="K315" s="39"/>
+      <c r="L315" s="40"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
@@ -11393,9 +11483,9 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="I316" s="1"/>
-      <c r="J316" s="37"/>
-      <c r="K316" s="37"/>
-      <c r="L316" s="38"/>
+      <c r="J316" s="39"/>
+      <c r="K316" s="39"/>
+      <c r="L316" s="40"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
@@ -11415,9 +11505,9 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="I317" s="1"/>
-      <c r="J317" s="37"/>
-      <c r="K317" s="37"/>
-      <c r="L317" s="38"/>
+      <c r="J317" s="39"/>
+      <c r="K317" s="39"/>
+      <c r="L317" s="40"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
@@ -11437,9 +11527,9 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="I318" s="1"/>
-      <c r="J318" s="37"/>
-      <c r="K318" s="37"/>
-      <c r="L318" s="38"/>
+      <c r="J318" s="39"/>
+      <c r="K318" s="39"/>
+      <c r="L318" s="40"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
@@ -11459,9 +11549,9 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="J319" s="37"/>
-      <c r="K319" s="37"/>
-      <c r="L319" s="38"/>
+      <c r="J319" s="39"/>
+      <c r="K319" s="39"/>
+      <c r="L319" s="40"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
@@ -11481,9 +11571,9 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="I320" s="1"/>
-      <c r="J320" s="37"/>
-      <c r="K320" s="37"/>
-      <c r="L320" s="38"/>
+      <c r="J320" s="39"/>
+      <c r="K320" s="39"/>
+      <c r="L320" s="40"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
@@ -11503,9 +11593,9 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="I321" s="1"/>
-      <c r="J321" s="37"/>
-      <c r="K321" s="37"/>
-      <c r="L321" s="38"/>
+      <c r="J321" s="39"/>
+      <c r="K321" s="39"/>
+      <c r="L321" s="40"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
@@ -11525,9 +11615,9 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="I322" s="1"/>
-      <c r="J322" s="37"/>
-      <c r="K322" s="37"/>
-      <c r="L322" s="38"/>
+      <c r="J322" s="39"/>
+      <c r="K322" s="39"/>
+      <c r="L322" s="40"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
@@ -11547,9 +11637,9 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="I323" s="1"/>
-      <c r="J323" s="37"/>
-      <c r="K323" s="37"/>
-      <c r="L323" s="38"/>
+      <c r="J323" s="39"/>
+      <c r="K323" s="39"/>
+      <c r="L323" s="40"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
@@ -11569,9 +11659,9 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="I324" s="1"/>
-      <c r="J324" s="37"/>
-      <c r="K324" s="37"/>
-      <c r="L324" s="38"/>
+      <c r="J324" s="39"/>
+      <c r="K324" s="39"/>
+      <c r="L324" s="40"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
@@ -11591,9 +11681,9 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="I325" s="1"/>
-      <c r="J325" s="37"/>
-      <c r="K325" s="37"/>
-      <c r="L325" s="38"/>
+      <c r="J325" s="39"/>
+      <c r="K325" s="39"/>
+      <c r="L325" s="40"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
@@ -11613,9 +11703,9 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="I326" s="1"/>
-      <c r="J326" s="37"/>
-      <c r="K326" s="37"/>
-      <c r="L326" s="38"/>
+      <c r="J326" s="39"/>
+      <c r="K326" s="39"/>
+      <c r="L326" s="40"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
@@ -11635,9 +11725,9 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="I327" s="1"/>
-      <c r="J327" s="37"/>
-      <c r="K327" s="37"/>
-      <c r="L327" s="38"/>
+      <c r="J327" s="39"/>
+      <c r="K327" s="39"/>
+      <c r="L327" s="40"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
@@ -11657,9 +11747,9 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="I328" s="1"/>
-      <c r="J328" s="37"/>
-      <c r="K328" s="37"/>
-      <c r="L328" s="38"/>
+      <c r="J328" s="39"/>
+      <c r="K328" s="39"/>
+      <c r="L328" s="40"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
@@ -11679,9 +11769,9 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="I329" s="1"/>
-      <c r="J329" s="37"/>
-      <c r="K329" s="37"/>
-      <c r="L329" s="38"/>
+      <c r="J329" s="39"/>
+      <c r="K329" s="39"/>
+      <c r="L329" s="40"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
@@ -11701,9 +11791,9 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="37"/>
-      <c r="K330" s="37"/>
-      <c r="L330" s="38"/>
+      <c r="J330" s="39"/>
+      <c r="K330" s="39"/>
+      <c r="L330" s="40"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
@@ -11723,9 +11813,9 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="I331" s="1"/>
-      <c r="J331" s="37"/>
-      <c r="K331" s="37"/>
-      <c r="L331" s="38"/>
+      <c r="J331" s="39"/>
+      <c r="K331" s="39"/>
+      <c r="L331" s="40"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
@@ -11745,9 +11835,9 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="I332" s="1"/>
-      <c r="J332" s="37"/>
-      <c r="K332" s="37"/>
-      <c r="L332" s="38"/>
+      <c r="J332" s="39"/>
+      <c r="K332" s="39"/>
+      <c r="L332" s="40"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
@@ -11767,9 +11857,9 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="I333" s="1"/>
-      <c r="J333" s="37"/>
-      <c r="K333" s="37"/>
-      <c r="L333" s="38"/>
+      <c r="J333" s="39"/>
+      <c r="K333" s="39"/>
+      <c r="L333" s="40"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
@@ -11789,9 +11879,9 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="I334" s="1"/>
-      <c r="J334" s="37"/>
-      <c r="K334" s="37"/>
-      <c r="L334" s="38"/>
+      <c r="J334" s="39"/>
+      <c r="K334" s="39"/>
+      <c r="L334" s="40"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
@@ -11811,9 +11901,9 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="I335" s="1"/>
-      <c r="J335" s="37"/>
-      <c r="K335" s="37"/>
-      <c r="L335" s="38"/>
+      <c r="J335" s="39"/>
+      <c r="K335" s="39"/>
+      <c r="L335" s="40"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
@@ -11833,9 +11923,9 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="I336" s="1"/>
-      <c r="J336" s="37"/>
-      <c r="K336" s="37"/>
-      <c r="L336" s="38"/>
+      <c r="J336" s="39"/>
+      <c r="K336" s="39"/>
+      <c r="L336" s="40"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
@@ -11855,9 +11945,9 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="I337" s="1"/>
-      <c r="J337" s="37"/>
-      <c r="K337" s="37"/>
-      <c r="L337" s="38"/>
+      <c r="J337" s="39"/>
+      <c r="K337" s="39"/>
+      <c r="L337" s="40"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
@@ -11877,9 +11967,9 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="37"/>
-      <c r="K338" s="37"/>
-      <c r="L338" s="38"/>
+      <c r="J338" s="39"/>
+      <c r="K338" s="39"/>
+      <c r="L338" s="40"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
@@ -11899,9 +11989,9 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="37"/>
-      <c r="K339" s="37"/>
-      <c r="L339" s="38"/>
+      <c r="J339" s="39"/>
+      <c r="K339" s="39"/>
+      <c r="L339" s="40"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
@@ -11921,9 +12011,9 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="37"/>
-      <c r="K340" s="37"/>
-      <c r="L340" s="38"/>
+      <c r="J340" s="39"/>
+      <c r="K340" s="39"/>
+      <c r="L340" s="40"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
@@ -11943,9 +12033,9 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="I341" s="1"/>
-      <c r="J341" s="37"/>
-      <c r="K341" s="37"/>
-      <c r="L341" s="38"/>
+      <c r="J341" s="39"/>
+      <c r="K341" s="39"/>
+      <c r="L341" s="40"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
@@ -11965,9 +12055,9 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="37"/>
-      <c r="K342" s="37"/>
-      <c r="L342" s="38"/>
+      <c r="J342" s="39"/>
+      <c r="K342" s="39"/>
+      <c r="L342" s="40"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
@@ -11987,9 +12077,9 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="I343" s="1"/>
-      <c r="J343" s="37"/>
-      <c r="K343" s="37"/>
-      <c r="L343" s="38"/>
+      <c r="J343" s="39"/>
+      <c r="K343" s="39"/>
+      <c r="L343" s="40"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
@@ -12009,9 +12099,9 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="I344" s="1"/>
-      <c r="J344" s="37"/>
-      <c r="K344" s="37"/>
-      <c r="L344" s="38"/>
+      <c r="J344" s="39"/>
+      <c r="K344" s="39"/>
+      <c r="L344" s="40"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
@@ -12031,9 +12121,9 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="37"/>
-      <c r="K345" s="37"/>
-      <c r="L345" s="38"/>
+      <c r="J345" s="39"/>
+      <c r="K345" s="39"/>
+      <c r="L345" s="40"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
@@ -12053,9 +12143,9 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="I346" s="1"/>
-      <c r="J346" s="37"/>
-      <c r="K346" s="37"/>
-      <c r="L346" s="38"/>
+      <c r="J346" s="39"/>
+      <c r="K346" s="39"/>
+      <c r="L346" s="40"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
@@ -12075,9 +12165,9 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="I347" s="1"/>
-      <c r="J347" s="37"/>
-      <c r="K347" s="37"/>
-      <c r="L347" s="38"/>
+      <c r="J347" s="39"/>
+      <c r="K347" s="39"/>
+      <c r="L347" s="40"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
@@ -12097,9 +12187,9 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="I348" s="1"/>
-      <c r="J348" s="37"/>
-      <c r="K348" s="37"/>
-      <c r="L348" s="38"/>
+      <c r="J348" s="39"/>
+      <c r="K348" s="39"/>
+      <c r="L348" s="40"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
@@ -12119,9 +12209,9 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="I349" s="1"/>
-      <c r="J349" s="37"/>
-      <c r="K349" s="37"/>
-      <c r="L349" s="38"/>
+      <c r="J349" s="39"/>
+      <c r="K349" s="39"/>
+      <c r="L349" s="40"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
@@ -12141,9 +12231,9 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="I350" s="1"/>
-      <c r="J350" s="37"/>
-      <c r="K350" s="37"/>
-      <c r="L350" s="38"/>
+      <c r="J350" s="39"/>
+      <c r="K350" s="39"/>
+      <c r="L350" s="40"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
@@ -12163,9 +12253,9 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="I351" s="1"/>
-      <c r="J351" s="37"/>
-      <c r="K351" s="37"/>
-      <c r="L351" s="38"/>
+      <c r="J351" s="39"/>
+      <c r="K351" s="39"/>
+      <c r="L351" s="40"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
@@ -12185,9 +12275,9 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="I352" s="1"/>
-      <c r="J352" s="37"/>
-      <c r="K352" s="37"/>
-      <c r="L352" s="38"/>
+      <c r="J352" s="39"/>
+      <c r="K352" s="39"/>
+      <c r="L352" s="40"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
@@ -12207,9 +12297,9 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="J353" s="37"/>
-      <c r="K353" s="37"/>
-      <c r="L353" s="38"/>
+      <c r="J353" s="39"/>
+      <c r="K353" s="39"/>
+      <c r="L353" s="40"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
@@ -12229,9 +12319,9 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="I354" s="1"/>
-      <c r="J354" s="37"/>
-      <c r="K354" s="37"/>
-      <c r="L354" s="38"/>
+      <c r="J354" s="39"/>
+      <c r="K354" s="39"/>
+      <c r="L354" s="40"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
@@ -12251,9 +12341,9 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="I355" s="1"/>
-      <c r="J355" s="37"/>
-      <c r="K355" s="37"/>
-      <c r="L355" s="38"/>
+      <c r="J355" s="39"/>
+      <c r="K355" s="39"/>
+      <c r="L355" s="40"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
@@ -12273,9 +12363,9 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="I356" s="1"/>
-      <c r="J356" s="37"/>
-      <c r="K356" s="37"/>
-      <c r="L356" s="38"/>
+      <c r="J356" s="39"/>
+      <c r="K356" s="39"/>
+      <c r="L356" s="40"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
@@ -12295,9 +12385,9 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="I357" s="1"/>
-      <c r="J357" s="37"/>
-      <c r="K357" s="37"/>
-      <c r="L357" s="38"/>
+      <c r="J357" s="39"/>
+      <c r="K357" s="39"/>
+      <c r="L357" s="40"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
@@ -12317,9 +12407,9 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="I358" s="1"/>
-      <c r="J358" s="37"/>
-      <c r="K358" s="37"/>
-      <c r="L358" s="38"/>
+      <c r="J358" s="39"/>
+      <c r="K358" s="39"/>
+      <c r="L358" s="40"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
@@ -12339,9 +12429,9 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="I359" s="1"/>
-      <c r="J359" s="37"/>
-      <c r="K359" s="37"/>
-      <c r="L359" s="38"/>
+      <c r="J359" s="39"/>
+      <c r="K359" s="39"/>
+      <c r="L359" s="40"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
@@ -12361,9 +12451,9 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="I360" s="1"/>
-      <c r="J360" s="37"/>
-      <c r="K360" s="37"/>
-      <c r="L360" s="38"/>
+      <c r="J360" s="39"/>
+      <c r="K360" s="39"/>
+      <c r="L360" s="40"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
@@ -12383,9 +12473,9 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="I361" s="1"/>
-      <c r="J361" s="37"/>
-      <c r="K361" s="37"/>
-      <c r="L361" s="38"/>
+      <c r="J361" s="39"/>
+      <c r="K361" s="39"/>
+      <c r="L361" s="40"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
@@ -12405,9 +12495,9 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="I362" s="1"/>
-      <c r="J362" s="37"/>
-      <c r="K362" s="37"/>
-      <c r="L362" s="38"/>
+      <c r="J362" s="39"/>
+      <c r="K362" s="39"/>
+      <c r="L362" s="40"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
@@ -12427,9 +12517,9 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="I363" s="1"/>
-      <c r="J363" s="37"/>
-      <c r="K363" s="37"/>
-      <c r="L363" s="38"/>
+      <c r="J363" s="39"/>
+      <c r="K363" s="39"/>
+      <c r="L363" s="40"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
@@ -12449,9 +12539,9 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="I364" s="1"/>
-      <c r="J364" s="37"/>
-      <c r="K364" s="37"/>
-      <c r="L364" s="38"/>
+      <c r="J364" s="39"/>
+      <c r="K364" s="39"/>
+      <c r="L364" s="40"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
@@ -12471,9 +12561,9 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="I365" s="1"/>
-      <c r="J365" s="37"/>
-      <c r="K365" s="37"/>
-      <c r="L365" s="38"/>
+      <c r="J365" s="39"/>
+      <c r="K365" s="39"/>
+      <c r="L365" s="40"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
@@ -12493,9 +12583,9 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="I366" s="1"/>
-      <c r="J366" s="37"/>
-      <c r="K366" s="37"/>
-      <c r="L366" s="38"/>
+      <c r="J366" s="39"/>
+      <c r="K366" s="39"/>
+      <c r="L366" s="40"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
@@ -12515,9 +12605,9 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="I367" s="1"/>
-      <c r="J367" s="37"/>
-      <c r="K367" s="37"/>
-      <c r="L367" s="38"/>
+      <c r="J367" s="39"/>
+      <c r="K367" s="39"/>
+      <c r="L367" s="40"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
@@ -12537,9 +12627,9 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="I368" s="1"/>
-      <c r="J368" s="37"/>
-      <c r="K368" s="37"/>
-      <c r="L368" s="38"/>
+      <c r="J368" s="39"/>
+      <c r="K368" s="39"/>
+      <c r="L368" s="40"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
@@ -12559,9 +12649,9 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="I369" s="1"/>
-      <c r="J369" s="37"/>
-      <c r="K369" s="37"/>
-      <c r="L369" s="38"/>
+      <c r="J369" s="39"/>
+      <c r="K369" s="39"/>
+      <c r="L369" s="40"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
@@ -12581,9 +12671,9 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="I370" s="1"/>
-      <c r="J370" s="37"/>
-      <c r="K370" s="37"/>
-      <c r="L370" s="38"/>
+      <c r="J370" s="39"/>
+      <c r="K370" s="39"/>
+      <c r="L370" s="40"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
@@ -12603,9 +12693,9 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="I371" s="1"/>
-      <c r="J371" s="37"/>
-      <c r="K371" s="37"/>
-      <c r="L371" s="38"/>
+      <c r="J371" s="39"/>
+      <c r="K371" s="39"/>
+      <c r="L371" s="40"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
@@ -12625,9 +12715,9 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="I372" s="1"/>
-      <c r="J372" s="37"/>
-      <c r="K372" s="37"/>
-      <c r="L372" s="38"/>
+      <c r="J372" s="39"/>
+      <c r="K372" s="39"/>
+      <c r="L372" s="40"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
@@ -12647,9 +12737,9 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="I373" s="1"/>
-      <c r="J373" s="37"/>
-      <c r="K373" s="37"/>
-      <c r="L373" s="38"/>
+      <c r="J373" s="39"/>
+      <c r="K373" s="39"/>
+      <c r="L373" s="40"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
@@ -12669,9 +12759,9 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="I374" s="1"/>
-      <c r="J374" s="37"/>
-      <c r="K374" s="37"/>
-      <c r="L374" s="38"/>
+      <c r="J374" s="39"/>
+      <c r="K374" s="39"/>
+      <c r="L374" s="40"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
@@ -12691,9 +12781,9 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="I375" s="1"/>
-      <c r="J375" s="37"/>
-      <c r="K375" s="37"/>
-      <c r="L375" s="38"/>
+      <c r="J375" s="39"/>
+      <c r="K375" s="39"/>
+      <c r="L375" s="40"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
@@ -12713,9 +12803,9 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="I376" s="1"/>
-      <c r="J376" s="37"/>
-      <c r="K376" s="37"/>
-      <c r="L376" s="38"/>
+      <c r="J376" s="39"/>
+      <c r="K376" s="39"/>
+      <c r="L376" s="40"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
@@ -12735,9 +12825,9 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="I377" s="1"/>
-      <c r="J377" s="37"/>
-      <c r="K377" s="37"/>
-      <c r="L377" s="38"/>
+      <c r="J377" s="39"/>
+      <c r="K377" s="39"/>
+      <c r="L377" s="40"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
@@ -12757,9 +12847,9 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="I378" s="1"/>
-      <c r="J378" s="37"/>
-      <c r="K378" s="37"/>
-      <c r="L378" s="38"/>
+      <c r="J378" s="39"/>
+      <c r="K378" s="39"/>
+      <c r="L378" s="40"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
@@ -12779,9 +12869,9 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="I379" s="1"/>
-      <c r="J379" s="37"/>
-      <c r="K379" s="37"/>
-      <c r="L379" s="38"/>
+      <c r="J379" s="39"/>
+      <c r="K379" s="39"/>
+      <c r="L379" s="40"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
@@ -12801,9 +12891,9 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="I380" s="1"/>
-      <c r="J380" s="37"/>
-      <c r="K380" s="37"/>
-      <c r="L380" s="38"/>
+      <c r="J380" s="39"/>
+      <c r="K380" s="39"/>
+      <c r="L380" s="40"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
@@ -12823,9 +12913,9 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="I381" s="1"/>
-      <c r="J381" s="37"/>
-      <c r="K381" s="37"/>
-      <c r="L381" s="38"/>
+      <c r="J381" s="39"/>
+      <c r="K381" s="39"/>
+      <c r="L381" s="40"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
@@ -12845,9 +12935,9 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="I382" s="1"/>
-      <c r="J382" s="37"/>
-      <c r="K382" s="37"/>
-      <c r="L382" s="38"/>
+      <c r="J382" s="39"/>
+      <c r="K382" s="39"/>
+      <c r="L382" s="40"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
@@ -12867,9 +12957,9 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="I383" s="1"/>
-      <c r="J383" s="37"/>
-      <c r="K383" s="37"/>
-      <c r="L383" s="38"/>
+      <c r="J383" s="39"/>
+      <c r="K383" s="39"/>
+      <c r="L383" s="40"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
@@ -12889,9 +12979,9 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="I384" s="1"/>
-      <c r="J384" s="37"/>
-      <c r="K384" s="37"/>
-      <c r="L384" s="38"/>
+      <c r="J384" s="39"/>
+      <c r="K384" s="39"/>
+      <c r="L384" s="40"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
@@ -12911,9 +13001,9 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="I385" s="1"/>
-      <c r="J385" s="37"/>
-      <c r="K385" s="37"/>
-      <c r="L385" s="38"/>
+      <c r="J385" s="39"/>
+      <c r="K385" s="39"/>
+      <c r="L385" s="40"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
@@ -12933,9 +13023,9 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="I386" s="1"/>
-      <c r="J386" s="37"/>
-      <c r="K386" s="37"/>
-      <c r="L386" s="38"/>
+      <c r="J386" s="39"/>
+      <c r="K386" s="39"/>
+      <c r="L386" s="40"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
@@ -12955,9 +13045,9 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="I387" s="1"/>
-      <c r="J387" s="37"/>
-      <c r="K387" s="37"/>
-      <c r="L387" s="38"/>
+      <c r="J387" s="39"/>
+      <c r="K387" s="39"/>
+      <c r="L387" s="40"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -12977,9 +13067,9 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="I388" s="1"/>
-      <c r="J388" s="37"/>
-      <c r="K388" s="37"/>
-      <c r="L388" s="38"/>
+      <c r="J388" s="39"/>
+      <c r="K388" s="39"/>
+      <c r="L388" s="40"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
@@ -12999,9 +13089,9 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="I389" s="1"/>
-      <c r="J389" s="37"/>
-      <c r="K389" s="37"/>
-      <c r="L389" s="38"/>
+      <c r="J389" s="39"/>
+      <c r="K389" s="39"/>
+      <c r="L389" s="40"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
@@ -13021,9 +13111,9 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="I390" s="1"/>
-      <c r="J390" s="37"/>
-      <c r="K390" s="37"/>
-      <c r="L390" s="38"/>
+      <c r="J390" s="39"/>
+      <c r="K390" s="39"/>
+      <c r="L390" s="40"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
@@ -13043,9 +13133,9 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="I391" s="1"/>
-      <c r="J391" s="37"/>
-      <c r="K391" s="37"/>
-      <c r="L391" s="38"/>
+      <c r="J391" s="39"/>
+      <c r="K391" s="39"/>
+      <c r="L391" s="40"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
@@ -13065,9 +13155,9 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="I392" s="1"/>
-      <c r="J392" s="37"/>
-      <c r="K392" s="37"/>
-      <c r="L392" s="38"/>
+      <c r="J392" s="39"/>
+      <c r="K392" s="39"/>
+      <c r="L392" s="40"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
@@ -13087,9 +13177,9 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="I393" s="1"/>
-      <c r="J393" s="37"/>
-      <c r="K393" s="37"/>
-      <c r="L393" s="38"/>
+      <c r="J393" s="39"/>
+      <c r="K393" s="39"/>
+      <c r="L393" s="40"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
@@ -13109,9 +13199,9 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="I394" s="1"/>
-      <c r="J394" s="37"/>
-      <c r="K394" s="37"/>
-      <c r="L394" s="38"/>
+      <c r="J394" s="39"/>
+      <c r="K394" s="39"/>
+      <c r="L394" s="40"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
@@ -13131,9 +13221,9 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="I395" s="1"/>
-      <c r="J395" s="37"/>
-      <c r="K395" s="37"/>
-      <c r="L395" s="38"/>
+      <c r="J395" s="39"/>
+      <c r="K395" s="39"/>
+      <c r="L395" s="40"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
@@ -13153,9 +13243,9 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="I396" s="1"/>
-      <c r="J396" s="37"/>
-      <c r="K396" s="37"/>
-      <c r="L396" s="38"/>
+      <c r="J396" s="39"/>
+      <c r="K396" s="39"/>
+      <c r="L396" s="40"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
@@ -13175,9 +13265,9 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="I397" s="1"/>
-      <c r="J397" s="37"/>
-      <c r="K397" s="37"/>
-      <c r="L397" s="38"/>
+      <c r="J397" s="39"/>
+      <c r="K397" s="39"/>
+      <c r="L397" s="40"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
@@ -13197,9 +13287,9 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="I398" s="1"/>
-      <c r="J398" s="37"/>
-      <c r="K398" s="37"/>
-      <c r="L398" s="38"/>
+      <c r="J398" s="39"/>
+      <c r="K398" s="39"/>
+      <c r="L398" s="40"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
@@ -13219,9 +13309,9 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="I399" s="1"/>
-      <c r="J399" s="37"/>
-      <c r="K399" s="37"/>
-      <c r="L399" s="38"/>
+      <c r="J399" s="39"/>
+      <c r="K399" s="39"/>
+      <c r="L399" s="40"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
@@ -13241,9 +13331,9 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="I400" s="1"/>
-      <c r="J400" s="37"/>
-      <c r="K400" s="37"/>
-      <c r="L400" s="38"/>
+      <c r="J400" s="39"/>
+      <c r="K400" s="39"/>
+      <c r="L400" s="40"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
@@ -13263,9 +13353,9 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="I401" s="1"/>
-      <c r="J401" s="37"/>
-      <c r="K401" s="37"/>
-      <c r="L401" s="38"/>
+      <c r="J401" s="39"/>
+      <c r="K401" s="39"/>
+      <c r="L401" s="40"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
@@ -13285,9 +13375,9 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="I402" s="1"/>
-      <c r="J402" s="37"/>
-      <c r="K402" s="37"/>
-      <c r="L402" s="38"/>
+      <c r="J402" s="39"/>
+      <c r="K402" s="39"/>
+      <c r="L402" s="40"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
@@ -13307,9 +13397,9 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="I403" s="1"/>
-      <c r="J403" s="37"/>
-      <c r="K403" s="37"/>
-      <c r="L403" s="38"/>
+      <c r="J403" s="39"/>
+      <c r="K403" s="39"/>
+      <c r="L403" s="40"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
@@ -13329,9 +13419,9 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="I404" s="1"/>
-      <c r="J404" s="37"/>
-      <c r="K404" s="37"/>
-      <c r="L404" s="38"/>
+      <c r="J404" s="39"/>
+      <c r="K404" s="39"/>
+      <c r="L404" s="40"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
@@ -13351,9 +13441,9 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="I405" s="1"/>
-      <c r="J405" s="37"/>
-      <c r="K405" s="37"/>
-      <c r="L405" s="38"/>
+      <c r="J405" s="39"/>
+      <c r="K405" s="39"/>
+      <c r="L405" s="40"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
@@ -13373,9 +13463,9 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="I406" s="1"/>
-      <c r="J406" s="37"/>
-      <c r="K406" s="37"/>
-      <c r="L406" s="38"/>
+      <c r="J406" s="39"/>
+      <c r="K406" s="39"/>
+      <c r="L406" s="40"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
@@ -13395,9 +13485,9 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="I407" s="1"/>
-      <c r="J407" s="37"/>
-      <c r="K407" s="37"/>
-      <c r="L407" s="38"/>
+      <c r="J407" s="39"/>
+      <c r="K407" s="39"/>
+      <c r="L407" s="40"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
@@ -13417,9 +13507,9 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="I408" s="1"/>
-      <c r="J408" s="37"/>
-      <c r="K408" s="37"/>
-      <c r="L408" s="38"/>
+      <c r="J408" s="39"/>
+      <c r="K408" s="39"/>
+      <c r="L408" s="40"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
@@ -13439,9 +13529,9 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="I409" s="1"/>
-      <c r="J409" s="37"/>
-      <c r="K409" s="37"/>
-      <c r="L409" s="38"/>
+      <c r="J409" s="39"/>
+      <c r="K409" s="39"/>
+      <c r="L409" s="40"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
@@ -13461,9 +13551,9 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="I410" s="1"/>
-      <c r="J410" s="37"/>
-      <c r="K410" s="37"/>
-      <c r="L410" s="38"/>
+      <c r="J410" s="39"/>
+      <c r="K410" s="39"/>
+      <c r="L410" s="40"/>
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
@@ -13483,9 +13573,9 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
       <c r="I411" s="1"/>
-      <c r="J411" s="37"/>
-      <c r="K411" s="37"/>
-      <c r="L411" s="38"/>
+      <c r="J411" s="39"/>
+      <c r="K411" s="39"/>
+      <c r="L411" s="40"/>
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
@@ -13505,9 +13595,9 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="I412" s="1"/>
-      <c r="J412" s="37"/>
-      <c r="K412" s="37"/>
-      <c r="L412" s="38"/>
+      <c r="J412" s="39"/>
+      <c r="K412" s="39"/>
+      <c r="L412" s="40"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
@@ -13527,9 +13617,9 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="I413" s="1"/>
-      <c r="J413" s="37"/>
-      <c r="K413" s="37"/>
-      <c r="L413" s="38"/>
+      <c r="J413" s="39"/>
+      <c r="K413" s="39"/>
+      <c r="L413" s="40"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
@@ -13549,9 +13639,9 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="I414" s="1"/>
-      <c r="J414" s="37"/>
-      <c r="K414" s="37"/>
-      <c r="L414" s="38"/>
+      <c r="J414" s="39"/>
+      <c r="K414" s="39"/>
+      <c r="L414" s="40"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
@@ -13571,9 +13661,9 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="I415" s="1"/>
-      <c r="J415" s="37"/>
-      <c r="K415" s="37"/>
-      <c r="L415" s="38"/>
+      <c r="J415" s="39"/>
+      <c r="K415" s="39"/>
+      <c r="L415" s="40"/>
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
@@ -13593,9 +13683,9 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="I416" s="1"/>
-      <c r="J416" s="37"/>
-      <c r="K416" s="37"/>
-      <c r="L416" s="38"/>
+      <c r="J416" s="39"/>
+      <c r="K416" s="39"/>
+      <c r="L416" s="40"/>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
@@ -13615,9 +13705,9 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="I417" s="1"/>
-      <c r="J417" s="37"/>
-      <c r="K417" s="37"/>
-      <c r="L417" s="38"/>
+      <c r="J417" s="39"/>
+      <c r="K417" s="39"/>
+      <c r="L417" s="40"/>
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
@@ -13637,9 +13727,9 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="I418" s="1"/>
-      <c r="J418" s="37"/>
-      <c r="K418" s="37"/>
-      <c r="L418" s="38"/>
+      <c r="J418" s="39"/>
+      <c r="K418" s="39"/>
+      <c r="L418" s="40"/>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
@@ -13659,9 +13749,9 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="I419" s="1"/>
-      <c r="J419" s="37"/>
-      <c r="K419" s="37"/>
-      <c r="L419" s="38"/>
+      <c r="J419" s="39"/>
+      <c r="K419" s="39"/>
+      <c r="L419" s="40"/>
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
@@ -13681,9 +13771,9 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="I420" s="1"/>
-      <c r="J420" s="37"/>
-      <c r="K420" s="37"/>
-      <c r="L420" s="38"/>
+      <c r="J420" s="39"/>
+      <c r="K420" s="39"/>
+      <c r="L420" s="40"/>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
@@ -13703,9 +13793,9 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="I421" s="1"/>
-      <c r="J421" s="37"/>
-      <c r="K421" s="37"/>
-      <c r="L421" s="38"/>
+      <c r="J421" s="39"/>
+      <c r="K421" s="39"/>
+      <c r="L421" s="40"/>
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
@@ -13725,9 +13815,9 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="I422" s="1"/>
-      <c r="J422" s="37"/>
-      <c r="K422" s="37"/>
-      <c r="L422" s="38"/>
+      <c r="J422" s="39"/>
+      <c r="K422" s="39"/>
+      <c r="L422" s="40"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
@@ -13747,9 +13837,9 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="I423" s="1"/>
-      <c r="J423" s="37"/>
-      <c r="K423" s="37"/>
-      <c r="L423" s="38"/>
+      <c r="J423" s="39"/>
+      <c r="K423" s="39"/>
+      <c r="L423" s="40"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
@@ -13769,9 +13859,9 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="I424" s="1"/>
-      <c r="J424" s="37"/>
-      <c r="K424" s="37"/>
-      <c r="L424" s="38"/>
+      <c r="J424" s="39"/>
+      <c r="K424" s="39"/>
+      <c r="L424" s="40"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
@@ -13791,9 +13881,9 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="I425" s="1"/>
-      <c r="J425" s="37"/>
-      <c r="K425" s="37"/>
-      <c r="L425" s="38"/>
+      <c r="J425" s="39"/>
+      <c r="K425" s="39"/>
+      <c r="L425" s="40"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
@@ -13813,9 +13903,9 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="I426" s="1"/>
-      <c r="J426" s="37"/>
-      <c r="K426" s="37"/>
-      <c r="L426" s="38"/>
+      <c r="J426" s="39"/>
+      <c r="K426" s="39"/>
+      <c r="L426" s="40"/>
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
@@ -13835,9 +13925,9 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="I427" s="1"/>
-      <c r="J427" s="37"/>
-      <c r="K427" s="37"/>
-      <c r="L427" s="38"/>
+      <c r="J427" s="39"/>
+      <c r="K427" s="39"/>
+      <c r="L427" s="40"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
@@ -13857,9 +13947,9 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="I428" s="1"/>
-      <c r="J428" s="37"/>
-      <c r="K428" s="37"/>
-      <c r="L428" s="38"/>
+      <c r="J428" s="39"/>
+      <c r="K428" s="39"/>
+      <c r="L428" s="40"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
@@ -13879,9 +13969,9 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="I429" s="1"/>
-      <c r="J429" s="37"/>
-      <c r="K429" s="37"/>
-      <c r="L429" s="38"/>
+      <c r="J429" s="39"/>
+      <c r="K429" s="39"/>
+      <c r="L429" s="40"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
@@ -13901,9 +13991,9 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="I430" s="1"/>
-      <c r="J430" s="37"/>
-      <c r="K430" s="37"/>
-      <c r="L430" s="38"/>
+      <c r="J430" s="39"/>
+      <c r="K430" s="39"/>
+      <c r="L430" s="40"/>
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
@@ -13923,9 +14013,9 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
       <c r="I431" s="1"/>
-      <c r="J431" s="37"/>
-      <c r="K431" s="37"/>
-      <c r="L431" s="38"/>
+      <c r="J431" s="39"/>
+      <c r="K431" s="39"/>
+      <c r="L431" s="40"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
@@ -13945,9 +14035,9 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="I432" s="1"/>
-      <c r="J432" s="37"/>
-      <c r="K432" s="37"/>
-      <c r="L432" s="38"/>
+      <c r="J432" s="39"/>
+      <c r="K432" s="39"/>
+      <c r="L432" s="40"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
@@ -13967,9 +14057,9 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
       <c r="I433" s="1"/>
-      <c r="J433" s="37"/>
-      <c r="K433" s="37"/>
-      <c r="L433" s="38"/>
+      <c r="J433" s="39"/>
+      <c r="K433" s="39"/>
+      <c r="L433" s="40"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
@@ -13989,9 +14079,9 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="I434" s="1"/>
-      <c r="J434" s="37"/>
-      <c r="K434" s="37"/>
-      <c r="L434" s="38"/>
+      <c r="J434" s="39"/>
+      <c r="K434" s="39"/>
+      <c r="L434" s="40"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
@@ -14011,9 +14101,9 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="I435" s="1"/>
-      <c r="J435" s="37"/>
-      <c r="K435" s="37"/>
-      <c r="L435" s="38"/>
+      <c r="J435" s="39"/>
+      <c r="K435" s="39"/>
+      <c r="L435" s="40"/>
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
@@ -14033,9 +14123,9 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="I436" s="1"/>
-      <c r="J436" s="37"/>
-      <c r="K436" s="37"/>
-      <c r="L436" s="38"/>
+      <c r="J436" s="39"/>
+      <c r="K436" s="39"/>
+      <c r="L436" s="40"/>
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
@@ -14055,9 +14145,9 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="I437" s="1"/>
-      <c r="J437" s="37"/>
-      <c r="K437" s="37"/>
-      <c r="L437" s="38"/>
+      <c r="J437" s="39"/>
+      <c r="K437" s="39"/>
+      <c r="L437" s="40"/>
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
@@ -14077,9 +14167,9 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
       <c r="I438" s="1"/>
-      <c r="J438" s="37"/>
-      <c r="K438" s="37"/>
-      <c r="L438" s="38"/>
+      <c r="J438" s="39"/>
+      <c r="K438" s="39"/>
+      <c r="L438" s="40"/>
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
@@ -14099,9 +14189,9 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
       <c r="I439" s="1"/>
-      <c r="J439" s="37"/>
-      <c r="K439" s="37"/>
-      <c r="L439" s="38"/>
+      <c r="J439" s="39"/>
+      <c r="K439" s="39"/>
+      <c r="L439" s="40"/>
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
@@ -14121,9 +14211,9 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="I440" s="1"/>
-      <c r="J440" s="37"/>
-      <c r="K440" s="37"/>
-      <c r="L440" s="38"/>
+      <c r="J440" s="39"/>
+      <c r="K440" s="39"/>
+      <c r="L440" s="40"/>
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
@@ -14143,9 +14233,9 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="I441" s="1"/>
-      <c r="J441" s="37"/>
-      <c r="K441" s="37"/>
-      <c r="L441" s="38"/>
+      <c r="J441" s="39"/>
+      <c r="K441" s="39"/>
+      <c r="L441" s="40"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
@@ -14165,9 +14255,9 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="I442" s="1"/>
-      <c r="J442" s="37"/>
-      <c r="K442" s="37"/>
-      <c r="L442" s="38"/>
+      <c r="J442" s="39"/>
+      <c r="K442" s="39"/>
+      <c r="L442" s="40"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
@@ -14187,9 +14277,9 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="I443" s="1"/>
-      <c r="J443" s="37"/>
-      <c r="K443" s="37"/>
-      <c r="L443" s="38"/>
+      <c r="J443" s="39"/>
+      <c r="K443" s="39"/>
+      <c r="L443" s="40"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
@@ -14209,9 +14299,9 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="I444" s="1"/>
-      <c r="J444" s="37"/>
-      <c r="K444" s="37"/>
-      <c r="L444" s="38"/>
+      <c r="J444" s="39"/>
+      <c r="K444" s="39"/>
+      <c r="L444" s="40"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
@@ -14231,9 +14321,9 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="I445" s="1"/>
-      <c r="J445" s="37"/>
-      <c r="K445" s="37"/>
-      <c r="L445" s="38"/>
+      <c r="J445" s="39"/>
+      <c r="K445" s="39"/>
+      <c r="L445" s="40"/>
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
@@ -14253,9 +14343,9 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="I446" s="1"/>
-      <c r="J446" s="37"/>
-      <c r="K446" s="37"/>
-      <c r="L446" s="38"/>
+      <c r="J446" s="39"/>
+      <c r="K446" s="39"/>
+      <c r="L446" s="40"/>
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
@@ -14275,9 +14365,9 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="I447" s="1"/>
-      <c r="J447" s="37"/>
-      <c r="K447" s="37"/>
-      <c r="L447" s="38"/>
+      <c r="J447" s="39"/>
+      <c r="K447" s="39"/>
+      <c r="L447" s="40"/>
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
@@ -14297,9 +14387,9 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="I448" s="1"/>
-      <c r="J448" s="37"/>
-      <c r="K448" s="37"/>
-      <c r="L448" s="38"/>
+      <c r="J448" s="39"/>
+      <c r="K448" s="39"/>
+      <c r="L448" s="40"/>
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
@@ -14319,9 +14409,9 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="I449" s="1"/>
-      <c r="J449" s="37"/>
-      <c r="K449" s="37"/>
-      <c r="L449" s="38"/>
+      <c r="J449" s="39"/>
+      <c r="K449" s="39"/>
+      <c r="L449" s="40"/>
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
@@ -14341,9 +14431,9 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="I450" s="1"/>
-      <c r="J450" s="37"/>
-      <c r="K450" s="37"/>
-      <c r="L450" s="38"/>
+      <c r="J450" s="39"/>
+      <c r="K450" s="39"/>
+      <c r="L450" s="40"/>
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
@@ -14363,9 +14453,9 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="I451" s="1"/>
-      <c r="J451" s="37"/>
-      <c r="K451" s="37"/>
-      <c r="L451" s="38"/>
+      <c r="J451" s="39"/>
+      <c r="K451" s="39"/>
+      <c r="L451" s="40"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
@@ -14385,9 +14475,9 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="I452" s="1"/>
-      <c r="J452" s="37"/>
-      <c r="K452" s="37"/>
-      <c r="L452" s="38"/>
+      <c r="J452" s="39"/>
+      <c r="K452" s="39"/>
+      <c r="L452" s="40"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
@@ -14407,9 +14497,9 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="I453" s="1"/>
-      <c r="J453" s="37"/>
-      <c r="K453" s="37"/>
-      <c r="L453" s="38"/>
+      <c r="J453" s="39"/>
+      <c r="K453" s="39"/>
+      <c r="L453" s="40"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
@@ -14429,9 +14519,9 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="I454" s="1"/>
-      <c r="J454" s="37"/>
-      <c r="K454" s="37"/>
-      <c r="L454" s="38"/>
+      <c r="J454" s="39"/>
+      <c r="K454" s="39"/>
+      <c r="L454" s="40"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
@@ -14451,9 +14541,9 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
       <c r="I455" s="1"/>
-      <c r="J455" s="37"/>
-      <c r="K455" s="37"/>
-      <c r="L455" s="38"/>
+      <c r="J455" s="39"/>
+      <c r="K455" s="39"/>
+      <c r="L455" s="40"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
@@ -14473,9 +14563,9 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="I456" s="1"/>
-      <c r="J456" s="37"/>
-      <c r="K456" s="37"/>
-      <c r="L456" s="38"/>
+      <c r="J456" s="39"/>
+      <c r="K456" s="39"/>
+      <c r="L456" s="40"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
@@ -14495,9 +14585,9 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="I457" s="1"/>
-      <c r="J457" s="37"/>
-      <c r="K457" s="37"/>
-      <c r="L457" s="38"/>
+      <c r="J457" s="39"/>
+      <c r="K457" s="39"/>
+      <c r="L457" s="40"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
@@ -14517,9 +14607,9 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="I458" s="1"/>
-      <c r="J458" s="37"/>
-      <c r="K458" s="37"/>
-      <c r="L458" s="38"/>
+      <c r="J458" s="39"/>
+      <c r="K458" s="39"/>
+      <c r="L458" s="40"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
@@ -14539,9 +14629,9 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="I459" s="1"/>
-      <c r="J459" s="37"/>
-      <c r="K459" s="37"/>
-      <c r="L459" s="38"/>
+      <c r="J459" s="39"/>
+      <c r="K459" s="39"/>
+      <c r="L459" s="40"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
@@ -14561,9 +14651,9 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="I460" s="1"/>
-      <c r="J460" s="37"/>
-      <c r="K460" s="37"/>
-      <c r="L460" s="38"/>
+      <c r="J460" s="39"/>
+      <c r="K460" s="39"/>
+      <c r="L460" s="40"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
@@ -14583,9 +14673,9 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
       <c r="I461" s="1"/>
-      <c r="J461" s="37"/>
-      <c r="K461" s="37"/>
-      <c r="L461" s="38"/>
+      <c r="J461" s="39"/>
+      <c r="K461" s="39"/>
+      <c r="L461" s="40"/>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
@@ -14605,9 +14695,9 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
       <c r="I462" s="1"/>
-      <c r="J462" s="37"/>
-      <c r="K462" s="37"/>
-      <c r="L462" s="38"/>
+      <c r="J462" s="39"/>
+      <c r="K462" s="39"/>
+      <c r="L462" s="40"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
@@ -14627,9 +14717,9 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="I463" s="1"/>
-      <c r="J463" s="37"/>
-      <c r="K463" s="37"/>
-      <c r="L463" s="38"/>
+      <c r="J463" s="39"/>
+      <c r="K463" s="39"/>
+      <c r="L463" s="40"/>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
@@ -14649,9 +14739,9 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="I464" s="1"/>
-      <c r="J464" s="37"/>
-      <c r="K464" s="37"/>
-      <c r="L464" s="38"/>
+      <c r="J464" s="39"/>
+      <c r="K464" s="39"/>
+      <c r="L464" s="40"/>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
@@ -14671,9 +14761,9 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="I465" s="1"/>
-      <c r="J465" s="37"/>
-      <c r="K465" s="37"/>
-      <c r="L465" s="38"/>
+      <c r="J465" s="39"/>
+      <c r="K465" s="39"/>
+      <c r="L465" s="40"/>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
@@ -14693,9 +14783,9 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="I466" s="1"/>
-      <c r="J466" s="37"/>
-      <c r="K466" s="37"/>
-      <c r="L466" s="38"/>
+      <c r="J466" s="39"/>
+      <c r="K466" s="39"/>
+      <c r="L466" s="40"/>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
@@ -14715,9 +14805,9 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="I467" s="1"/>
-      <c r="J467" s="37"/>
-      <c r="K467" s="37"/>
-      <c r="L467" s="38"/>
+      <c r="J467" s="39"/>
+      <c r="K467" s="39"/>
+      <c r="L467" s="40"/>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
@@ -14737,9 +14827,9 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
       <c r="I468" s="1"/>
-      <c r="J468" s="37"/>
-      <c r="K468" s="37"/>
-      <c r="L468" s="38"/>
+      <c r="J468" s="39"/>
+      <c r="K468" s="39"/>
+      <c r="L468" s="40"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
@@ -14759,9 +14849,9 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="I469" s="1"/>
-      <c r="J469" s="37"/>
-      <c r="K469" s="37"/>
-      <c r="L469" s="38"/>
+      <c r="J469" s="39"/>
+      <c r="K469" s="39"/>
+      <c r="L469" s="40"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
@@ -14781,9 +14871,9 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="I470" s="1"/>
-      <c r="J470" s="37"/>
-      <c r="K470" s="37"/>
-      <c r="L470" s="38"/>
+      <c r="J470" s="39"/>
+      <c r="K470" s="39"/>
+      <c r="L470" s="40"/>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
@@ -14803,9 +14893,9 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
       <c r="I471" s="1"/>
-      <c r="J471" s="37"/>
-      <c r="K471" s="37"/>
-      <c r="L471" s="38"/>
+      <c r="J471" s="39"/>
+      <c r="K471" s="39"/>
+      <c r="L471" s="40"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
@@ -14825,9 +14915,9 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="I472" s="1"/>
-      <c r="J472" s="37"/>
-      <c r="K472" s="37"/>
-      <c r="L472" s="38"/>
+      <c r="J472" s="39"/>
+      <c r="K472" s="39"/>
+      <c r="L472" s="40"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
@@ -14847,9 +14937,9 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="I473" s="1"/>
-      <c r="J473" s="37"/>
-      <c r="K473" s="37"/>
-      <c r="L473" s="38"/>
+      <c r="J473" s="39"/>
+      <c r="K473" s="39"/>
+      <c r="L473" s="40"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
@@ -14869,9 +14959,9 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
       <c r="I474" s="1"/>
-      <c r="J474" s="37"/>
-      <c r="K474" s="37"/>
-      <c r="L474" s="38"/>
+      <c r="J474" s="39"/>
+      <c r="K474" s="39"/>
+      <c r="L474" s="40"/>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
@@ -14891,9 +14981,9 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="I475" s="1"/>
-      <c r="J475" s="37"/>
-      <c r="K475" s="37"/>
-      <c r="L475" s="38"/>
+      <c r="J475" s="39"/>
+      <c r="K475" s="39"/>
+      <c r="L475" s="40"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
@@ -14913,9 +15003,9 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="I476" s="1"/>
-      <c r="J476" s="37"/>
-      <c r="K476" s="37"/>
-      <c r="L476" s="38"/>
+      <c r="J476" s="39"/>
+      <c r="K476" s="39"/>
+      <c r="L476" s="40"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
@@ -14935,9 +15025,9 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="I477" s="1"/>
-      <c r="J477" s="37"/>
-      <c r="K477" s="37"/>
-      <c r="L477" s="38"/>
+      <c r="J477" s="39"/>
+      <c r="K477" s="39"/>
+      <c r="L477" s="40"/>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
@@ -14957,9 +15047,9 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="I478" s="1"/>
-      <c r="J478" s="37"/>
-      <c r="K478" s="37"/>
-      <c r="L478" s="38"/>
+      <c r="J478" s="39"/>
+      <c r="K478" s="39"/>
+      <c r="L478" s="40"/>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
@@ -14979,9 +15069,9 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="I479" s="1"/>
-      <c r="J479" s="37"/>
-      <c r="K479" s="37"/>
-      <c r="L479" s="38"/>
+      <c r="J479" s="39"/>
+      <c r="K479" s="39"/>
+      <c r="L479" s="40"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-00022.xlsx
@@ -205,11 +205,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -249,9 +249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,30 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,11 +294,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,7 +320,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,44 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,13 +493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +541,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +571,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,85 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,19 +625,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,21 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -759,6 +744,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -768,6 +768,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -798,165 +813,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1943,10 +1943,10 @@
             <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>34.68</v>
+            <v>34.55</v>
           </cell>
           <cell r="S12">
-            <v>620.150919999999</v>
+            <v>646.15092</v>
           </cell>
         </row>
         <row r="12">
@@ -2653,6 +2653,60 @@
         <row r="22">
           <cell r="A22" t="str">
             <v>JG_0000019</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>JH_00017</v>
+          </cell>
+          <cell r="C22">
+            <v>600085</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E22">
+            <v>44546</v>
+          </cell>
+          <cell r="F22">
+            <v>38.9</v>
+          </cell>
+          <cell r="G22">
+            <v>200</v>
+          </cell>
+          <cell r="H22">
+            <v>5</v>
+          </cell>
+          <cell r="I22">
+            <v>0.1556</v>
+          </cell>
+          <cell r="J22">
+            <v>7785.1556</v>
+          </cell>
+          <cell r="K22">
+            <v>38.95</v>
+          </cell>
+          <cell r="L22">
+            <v>37.47</v>
+          </cell>
+          <cell r="M22">
+            <v>40.39</v>
+          </cell>
+          <cell r="N22">
+            <v>32.08</v>
+          </cell>
+          <cell r="O22">
+            <v>8.31</v>
+          </cell>
+          <cell r="P22">
+            <v>41.56</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.0337837837837866</v>
+          </cell>
+          <cell r="R22">
+            <v>37</v>
+          </cell>
+          <cell r="S22">
+            <v>390.1556</v>
           </cell>
         </row>
       </sheetData>
@@ -2924,11 +2978,11 @@
   <dimension ref="A1:AG479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3302,8 +3356,8 @@
         <v>59.29</v>
       </c>
       <c r="AG6" s="4">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>-5.46</v>
+        <f>($AF6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*100</f>
+        <v>-546</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -3392,8 +3446,8 @@
         <v>59.29</v>
       </c>
       <c r="AG7" s="4">
-        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
-        <v>-5.46</v>
+        <f>($AF7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*100</f>
+        <v>-546</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -3482,8 +3536,8 @@
         <v>59.29</v>
       </c>
       <c r="AG8" s="4">
-        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
-        <v>-5.46</v>
+        <f>($AF8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*100</f>
+        <v>-546</v>
       </c>
     </row>
     <row r="9" spans="1:32">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-00022.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/健民集团-00022.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="12880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -243,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,30 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +272,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -302,11 +317,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,14 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -341,15 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,17 +364,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,13 +493,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,25 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,19 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +595,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,55 +637,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,6 +719,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -729,31 +738,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +773,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -802,101 +813,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,61 +905,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
     <sheetNames>
       <sheetName val="交易计划及执行表"/>
       <sheetName val="交易水平监控表"/>
-      <sheetName val="资金曲线"/>
+      <sheetName val="资金曲线变化表"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1246,13 +1246,13 @@
             <v>0.0557620817843874</v>
           </cell>
           <cell r="AD4">
-            <v>-140.989</v>
+            <v>-1.25900000000001</v>
           </cell>
           <cell r="AE4">
-            <v>-1.25899999999999</v>
+            <v>26.2</v>
           </cell>
           <cell r="AF4">
-            <v>-0.20859872611465</v>
+            <v>26.295</v>
           </cell>
           <cell r="AG4" t="str">
             <v>1.入场时，忽略了距离最高点的距离;
@@ -1299,14 +1299,6 @@
           <cell r="AC5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="AD5">
-            <v>139.73</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AF5">
-            <v>0.238853503184713</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -1382,9 +1374,6 @@
           <cell r="AD6">
             <v>0</v>
           </cell>
-          <cell r="AE6">
-            <v>0</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -1474,14 +1463,14 @@
           <cell r="AC7">
             <v>0.57312252964427</v>
           </cell>
-          <cell r="AD7" t="str">
-            <v>-</v>
+          <cell r="AD7">
+            <v>491.0841</v>
           </cell>
           <cell r="AE7">
-            <v>491.0841</v>
+            <v>32.7</v>
           </cell>
           <cell r="AF7">
-            <v>0.569977426636569</v>
+            <v>37.75</v>
           </cell>
         </row>
         <row r="8">
@@ -1572,14 +1561,14 @@
           <cell r="AC8">
             <v>0.560000000000002</v>
           </cell>
-          <cell r="AD8" t="str">
-            <v>-</v>
+          <cell r="AD8">
+            <v>20.755000000001</v>
           </cell>
           <cell r="AE8">
-            <v>20.755000000001</v>
+            <v>72.07</v>
           </cell>
           <cell r="AF8">
-            <v>0.0299448384554775</v>
+            <v>72.45</v>
           </cell>
           <cell r="AG8" t="str">
             <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
@@ -1673,14 +1662,14 @@
           <cell r="AC9">
             <v>0.205882352941172</v>
           </cell>
-          <cell r="AD9" t="str">
-            <v>-</v>
+          <cell r="AD9">
+            <v>-52.1363799999999</v>
           </cell>
           <cell r="AE9">
-            <v>-52.1363799999999</v>
+            <v>30.54</v>
           </cell>
           <cell r="AF9">
-            <v>-0.0622009569377991</v>
+            <v>30.15</v>
           </cell>
           <cell r="AG9" t="str">
             <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
@@ -1773,14 +1762,14 @@
           <cell r="AC10">
             <v>0.406249999999998</v>
           </cell>
-          <cell r="AD10" t="str">
-            <v>-</v>
+          <cell r="AD10">
+            <v>-210.89828</v>
           </cell>
           <cell r="AE10">
-            <v>-210.89828</v>
+            <v>29.81</v>
           </cell>
           <cell r="AF10">
-            <v>-0.196428571428572</v>
+            <v>27.83</v>
           </cell>
           <cell r="AG10" t="str">
             <v>1.入场中枢点错误</v>
@@ -1874,14 +1863,14 @@
           <cell r="AC11">
             <v>0.324200913242009</v>
           </cell>
-          <cell r="AD11" t="str">
-            <v>-</v>
+          <cell r="AD11">
+            <v>-179.67</v>
           </cell>
           <cell r="AE11">
-            <v>-179.67</v>
+            <v>28.37</v>
           </cell>
           <cell r="AF11">
-            <v>-0.218300653594771</v>
+            <v>26.7</v>
           </cell>
           <cell r="AG11" t="str">
             <v>1.宁可错过，不要根据临时计划入场。
@@ -1946,31 +1935,50 @@
             <v>34.55</v>
           </cell>
           <cell r="S12">
-            <v>646.15092</v>
-          </cell>
-        </row>
-        <row r="12">
+            <v>0</v>
+          </cell>
+          <cell r="T12">
+            <v>44554</v>
+          </cell>
+          <cell r="U12">
+            <v>34.52</v>
+          </cell>
+          <cell r="V12">
+            <v>100</v>
+          </cell>
+          <cell r="W12">
+            <v>5</v>
+          </cell>
           <cell r="X12">
-            <v>0</v>
+            <v>3.452</v>
           </cell>
           <cell r="Y12">
-            <v>0</v>
+            <v>0.6904</v>
           </cell>
           <cell r="Z12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AC12" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="12">
+            <v>3442.8576</v>
+          </cell>
+          <cell r="AA12">
+            <v>35.07</v>
+          </cell>
+          <cell r="AB12">
+            <v>33.85</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.549180327868854</v>
+          </cell>
+          <cell r="AD12">
+            <v>-1329.93008</v>
+          </cell>
           <cell r="AE12">
-            <v>0</v>
+            <v>37.86</v>
           </cell>
           <cell r="AF12">
-            <v>0</v>
+            <v>34.6266666666667</v>
+          </cell>
+          <cell r="AG12" t="str">
+            <v>1.错过了卖出时机，要关注周线图的基底
+2.加仓时要同步上移止损线到新的支撑位</v>
           </cell>
         </row>
         <row r="13">
@@ -2029,18 +2037,28 @@
             <v>34.68</v>
           </cell>
           <cell r="S13">
-            <v>672.15196</v>
-          </cell>
-        </row>
-        <row r="13">
+            <v>0</v>
+          </cell>
+          <cell r="T13">
+            <v>44553</v>
+          </cell>
+          <cell r="U13">
+            <v>34.68</v>
+          </cell>
+          <cell r="V13">
+            <v>200</v>
+          </cell>
+          <cell r="W13">
+            <v>5</v>
+          </cell>
           <cell r="X13">
-            <v>0</v>
+            <v>6.936</v>
           </cell>
           <cell r="Y13">
-            <v>0</v>
+            <v>1.3872</v>
           </cell>
           <cell r="Z13">
-            <v>0</v>
+            <v>6922.6768</v>
           </cell>
         </row>
         <row r="13">
@@ -2048,77 +2066,12 @@
             <v>#DIV/0!</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="AE13">
-            <v>0</v>
-          </cell>
-          <cell r="AF13">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>JG_0000011</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>JH_00009</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>000733</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>振华科技</v>
-          </cell>
-          <cell r="E14">
-            <v>44540</v>
-          </cell>
-          <cell r="F14">
-            <v>115.97</v>
-          </cell>
-          <cell r="G14">
-            <v>100</v>
-          </cell>
-          <cell r="H14">
-            <v>5</v>
-          </cell>
-          <cell r="I14">
-            <v>0</v>
-          </cell>
-          <cell r="J14">
-            <v>11602</v>
-          </cell>
-          <cell r="K14">
-            <v>118</v>
-          </cell>
-          <cell r="L14">
-            <v>113.58</v>
-          </cell>
-          <cell r="M14">
-            <v>128.61</v>
-          </cell>
-          <cell r="N14">
-            <v>102.72</v>
-          </cell>
-          <cell r="O14">
-            <v>25.89</v>
-          </cell>
-          <cell r="P14">
-            <v>50.45</v>
-          </cell>
-          <cell r="Q14">
-            <v>0.459276018099548</v>
-          </cell>
-          <cell r="R14">
-            <v>110.4</v>
-          </cell>
-          <cell r="S14">
-            <v>0</v>
-          </cell>
           <cell r="T14">
-            <v>44543</v>
+            <v>44554</v>
           </cell>
           <cell r="U14">
-            <v>111.66</v>
+            <v>34.68</v>
           </cell>
           <cell r="V14">
             <v>100</v>
@@ -2127,154 +2080,136 @@
             <v>5</v>
           </cell>
           <cell r="X14">
+            <v>3.468</v>
+          </cell>
+          <cell r="Y14">
+            <v>0.6936</v>
+          </cell>
+          <cell r="Z14">
+            <v>3458.8384</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>JG_0000011</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>JH_00009</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>000733</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>振华科技</v>
+          </cell>
+          <cell r="E15">
+            <v>44540</v>
+          </cell>
+          <cell r="F15">
+            <v>115.97</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>5</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>11602</v>
+          </cell>
+          <cell r="K15">
+            <v>118</v>
+          </cell>
+          <cell r="L15">
+            <v>113.58</v>
+          </cell>
+          <cell r="M15">
+            <v>128.61</v>
+          </cell>
+          <cell r="N15">
+            <v>102.72</v>
+          </cell>
+          <cell r="O15">
+            <v>25.89</v>
+          </cell>
+          <cell r="P15">
+            <v>50.45</v>
+          </cell>
+          <cell r="Q15">
+            <v>0.459276018099548</v>
+          </cell>
+          <cell r="R15">
+            <v>110.4</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>44543</v>
+          </cell>
+          <cell r="U15">
+            <v>111.66</v>
+          </cell>
+          <cell r="V15">
+            <v>100</v>
+          </cell>
+          <cell r="W15">
+            <v>5</v>
+          </cell>
+          <cell r="X15">
             <v>11.166</v>
           </cell>
-          <cell r="Y14">
+          <cell r="Y15">
             <v>2.2332</v>
           </cell>
-          <cell r="Z14">
+          <cell r="Z15">
             <v>11147.6008</v>
           </cell>
-          <cell r="AA14">
+          <cell r="AA15">
             <v>115.99</v>
           </cell>
-          <cell r="AB14">
+          <cell r="AB15">
             <v>110.08</v>
           </cell>
-          <cell r="AC14">
+          <cell r="AC15">
             <v>0.267343485617597</v>
           </cell>
-          <cell r="AD14" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="AE14">
+          <cell r="AD15">
             <v>-454.3992</v>
           </cell>
-          <cell r="AF14">
-            <v>-0.166473541908073</v>
-          </cell>
-          <cell r="AG14" t="str">
+          <cell r="AE15">
+            <v>115.97</v>
+          </cell>
+          <cell r="AF15">
+            <v>111.66</v>
+          </cell>
+          <cell r="AG15" t="str">
             <v>1.对交易减少量缺乏关注；
 2.对网球行为缺乏关注；
 3.对低突破高交易量重回低位缺乏关注;</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>JG_0000012</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>JH_00008</v>
-          </cell>
-          <cell r="C15">
-            <v>601677</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>明泰铝业</v>
-          </cell>
-          <cell r="E15">
-            <v>44540</v>
-          </cell>
-          <cell r="F15">
-            <v>39.15</v>
-          </cell>
-          <cell r="G15">
-            <v>100</v>
-          </cell>
-          <cell r="H15">
-            <v>5</v>
-          </cell>
-          <cell r="I15">
-            <v>0.0783</v>
-          </cell>
-          <cell r="J15">
-            <v>3920.0783</v>
-          </cell>
-          <cell r="K15">
-            <v>39.16</v>
-          </cell>
-          <cell r="L15">
-            <v>37.55</v>
-          </cell>
-          <cell r="M15">
-            <v>41.07</v>
-          </cell>
-          <cell r="N15">
-            <v>32.21</v>
-          </cell>
-          <cell r="O15">
-            <v>8.86</v>
-          </cell>
-          <cell r="P15">
-            <v>14.76</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.00621118012422237</v>
-          </cell>
-          <cell r="R15">
-            <v>35.91</v>
-          </cell>
-          <cell r="S15">
-            <v>0</v>
-          </cell>
-          <cell r="T15">
-            <v>44547</v>
-          </cell>
-          <cell r="U15">
-            <v>35.9</v>
-          </cell>
-          <cell r="V15">
-            <v>100</v>
-          </cell>
-          <cell r="W15">
-            <v>5</v>
-          </cell>
-          <cell r="X15">
-            <v>3.59</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.718</v>
-          </cell>
-          <cell r="Z15">
-            <v>3580.692</v>
-          </cell>
-          <cell r="AA15">
-            <v>36.86</v>
-          </cell>
-          <cell r="AB15">
-            <v>35.6</v>
-          </cell>
-          <cell r="AC15">
-            <v>0.238095238095236</v>
-          </cell>
-          <cell r="AD15">
-            <v>0</v>
-          </cell>
-          <cell r="AE15">
-            <v>-339.3863</v>
-          </cell>
-          <cell r="AF15">
-            <v>-0.366817155756208</v>
-          </cell>
-        </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>JG_0000013</v>
+            <v>JG_0000012</v>
           </cell>
           <cell r="B16" t="str">
-            <v>JH_00007</v>
+            <v>JH_00008</v>
           </cell>
           <cell r="C16">
-            <v>603688</v>
+            <v>601677</v>
           </cell>
           <cell r="D16" t="str">
-            <v>石英股份</v>
+            <v>明泰铝业</v>
           </cell>
           <cell r="E16">
             <v>44540</v>
           </cell>
           <cell r="F16">
-            <v>64.3</v>
+            <v>39.15</v>
           </cell>
           <cell r="G16">
             <v>100</v>
@@ -2283,43 +2218,43 @@
             <v>5</v>
           </cell>
           <cell r="I16">
-            <v>0.1286</v>
+            <v>0.0783</v>
           </cell>
           <cell r="J16">
-            <v>6435.1286</v>
+            <v>3920.0783</v>
           </cell>
           <cell r="K16">
-            <v>64.47</v>
+            <v>39.16</v>
           </cell>
           <cell r="L16">
-            <v>59.34</v>
+            <v>37.55</v>
           </cell>
           <cell r="M16">
-            <v>69.25</v>
+            <v>41.07</v>
           </cell>
           <cell r="N16">
-            <v>52.2</v>
+            <v>32.21</v>
           </cell>
           <cell r="O16">
-            <v>17.05</v>
+            <v>8.86</v>
           </cell>
           <cell r="P16">
-            <v>100.55</v>
+            <v>14.76</v>
           </cell>
           <cell r="Q16">
-            <v>0.0331384015594546</v>
+            <v>0.00621118012422237</v>
           </cell>
           <cell r="R16">
-            <v>58.51</v>
+            <v>35.91</v>
           </cell>
           <cell r="S16">
-            <v>589.1286</v>
+            <v>0</v>
           </cell>
           <cell r="T16">
-            <v>44545</v>
+            <v>44547</v>
           </cell>
           <cell r="U16">
-            <v>60.67</v>
+            <v>35.9</v>
           </cell>
           <cell r="V16">
             <v>100</v>
@@ -2328,51 +2263,51 @@
             <v>5</v>
           </cell>
           <cell r="X16">
-            <v>6.067</v>
+            <v>3.59</v>
           </cell>
           <cell r="Y16">
-            <v>1.2134</v>
+            <v>0.718</v>
           </cell>
           <cell r="Z16">
-            <v>6054.7196</v>
+            <v>3580.692</v>
           </cell>
           <cell r="AA16">
-            <v>64.29</v>
+            <v>36.86</v>
           </cell>
           <cell r="AB16">
-            <v>60.28</v>
+            <v>35.6</v>
           </cell>
           <cell r="AC16">
-            <v>0.0972568578553616</v>
+            <v>0.238095238095236</v>
           </cell>
           <cell r="AD16">
-            <v>0</v>
+            <v>-339.3863</v>
           </cell>
           <cell r="AE16">
-            <v>-380.409</v>
+            <v>39.15</v>
           </cell>
           <cell r="AF16">
-            <v>-0.212903225806451</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>JG_0000014</v>
+            <v>JG_0000013</v>
           </cell>
           <cell r="B17" t="str">
-            <v>JH_00006</v>
+            <v>JH_00007</v>
           </cell>
           <cell r="C17">
-            <v>600032</v>
+            <v>603688</v>
           </cell>
           <cell r="D17" t="str">
-            <v>浙江新能</v>
+            <v>石英股份</v>
           </cell>
           <cell r="E17">
-            <v>44543</v>
+            <v>44540</v>
           </cell>
           <cell r="F17">
-            <v>17.01</v>
+            <v>64.3</v>
           </cell>
           <cell r="G17">
             <v>100</v>
@@ -2381,42 +2316,81 @@
             <v>5</v>
           </cell>
           <cell r="I17">
-            <v>0.03402</v>
+            <v>0.1286</v>
           </cell>
           <cell r="J17">
-            <v>1706.03402</v>
+            <v>6435.1286</v>
           </cell>
           <cell r="K17">
-            <v>17.5</v>
+            <v>64.47</v>
           </cell>
           <cell r="L17">
-            <v>16.48</v>
+            <v>59.34</v>
           </cell>
           <cell r="M17">
-            <v>18.44</v>
+            <v>69.25</v>
           </cell>
           <cell r="N17">
-            <v>14.86</v>
+            <v>52.2</v>
           </cell>
           <cell r="O17">
-            <v>3.58</v>
+            <v>17.05</v>
           </cell>
           <cell r="P17">
-            <v>85.91</v>
+            <v>100.55</v>
           </cell>
           <cell r="Q17">
-            <v>0.480392156862744</v>
+            <v>0.0331384015594546</v>
           </cell>
           <cell r="R17">
-            <v>15.5</v>
+            <v>58.51</v>
           </cell>
           <cell r="S17">
-            <v>161.03402</v>
+            <v>0</v>
+          </cell>
+          <cell r="T17">
+            <v>44545</v>
+          </cell>
+          <cell r="U17">
+            <v>60.67</v>
+          </cell>
+          <cell r="V17">
+            <v>100</v>
+          </cell>
+          <cell r="W17">
+            <v>5</v>
+          </cell>
+          <cell r="X17">
+            <v>6.067</v>
+          </cell>
+          <cell r="Y17">
+            <v>1.2134</v>
+          </cell>
+          <cell r="Z17">
+            <v>6054.7196</v>
+          </cell>
+          <cell r="AA17">
+            <v>64.29</v>
+          </cell>
+          <cell r="AB17">
+            <v>60.28</v>
+          </cell>
+          <cell r="AC17">
+            <v>0.0972568578553616</v>
+          </cell>
+          <cell r="AD17">
+            <v>-380.409</v>
+          </cell>
+          <cell r="AE17">
+            <v>64.3</v>
+          </cell>
+          <cell r="AF17">
+            <v>60.67</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>JG_0000015</v>
+            <v>JG_0000014</v>
           </cell>
           <cell r="B18" t="str">
             <v>JH_00006</v>
@@ -2431,19 +2405,19 @@
             <v>44543</v>
           </cell>
           <cell r="F18">
-            <v>17.19</v>
+            <v>17.01</v>
           </cell>
           <cell r="G18">
-            <v>200</v>
+            <v>100</v>
           </cell>
           <cell r="H18">
             <v>5</v>
           </cell>
           <cell r="I18">
-            <v>0.06876</v>
+            <v>0.03402</v>
           </cell>
           <cell r="J18">
-            <v>3443.06876</v>
+            <v>1706.03402</v>
           </cell>
           <cell r="K18">
             <v>17.5</v>
@@ -2464,92 +2438,122 @@
             <v>85.91</v>
           </cell>
           <cell r="Q18">
-            <v>0.30392156862745</v>
+            <v>0.480392156862744</v>
           </cell>
           <cell r="R18">
             <v>15.5</v>
           </cell>
           <cell r="S18">
-            <v>348.06876</v>
+            <v>161.03402</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="X18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Z18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AC18" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>JG_0000016</v>
+            <v>JG_0000015</v>
           </cell>
           <cell r="B19" t="str">
-            <v>JH_00022</v>
+            <v>JH_00006</v>
           </cell>
           <cell r="C19">
-            <v>600976</v>
+            <v>600032</v>
           </cell>
           <cell r="D19" t="str">
-            <v>健民集团</v>
+            <v>浙江新能</v>
           </cell>
           <cell r="E19">
-            <v>44547</v>
+            <v>44543</v>
           </cell>
           <cell r="F19">
-            <v>64.75</v>
+            <v>17.19</v>
           </cell>
           <cell r="G19">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="H19">
             <v>5</v>
           </cell>
           <cell r="I19">
-            <v>0.1295</v>
+            <v>0.06876</v>
           </cell>
           <cell r="J19">
-            <v>6480.1295</v>
+            <v>3443.06876</v>
           </cell>
           <cell r="K19">
-            <v>65.9</v>
+            <v>17.5</v>
           </cell>
           <cell r="L19">
-            <v>60.17</v>
+            <v>16.48</v>
           </cell>
           <cell r="M19">
-            <v>67.42</v>
+            <v>18.44</v>
           </cell>
           <cell r="N19">
-            <v>46.04</v>
+            <v>14.86</v>
           </cell>
           <cell r="O19">
-            <v>21.38</v>
+            <v>3.58</v>
           </cell>
           <cell r="P19">
-            <v>35.75</v>
+            <v>85.91</v>
           </cell>
           <cell r="Q19">
-            <v>0.200698080279233</v>
+            <v>0.30392156862745</v>
           </cell>
           <cell r="R19">
-            <v>59.29</v>
+            <v>15.5</v>
           </cell>
           <cell r="S19">
-            <v>556.1295</v>
+            <v>348.06876</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="X19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AC19" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>JG_0000017</v>
+            <v>JG_0000016</v>
           </cell>
           <cell r="B20" t="str">
-            <v>JH_00028</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>002889</v>
+            <v>JH_00022</v>
+          </cell>
+          <cell r="C20">
+            <v>600976</v>
           </cell>
           <cell r="D20" t="str">
-            <v>东方嘉盛</v>
+            <v>健民集团</v>
           </cell>
           <cell r="E20">
-            <v>44550</v>
+            <v>44547</v>
           </cell>
           <cell r="F20">
-            <v>27.83</v>
+            <v>64.75</v>
           </cell>
           <cell r="G20">
             <v>100</v>
@@ -2558,57 +2562,72 @@
             <v>5</v>
           </cell>
           <cell r="I20">
+            <v>0.1295</v>
+          </cell>
+          <cell r="J20">
+            <v>6480.1295</v>
+          </cell>
+          <cell r="K20">
+            <v>65.9</v>
+          </cell>
+          <cell r="L20">
+            <v>60.17</v>
+          </cell>
+          <cell r="M20">
+            <v>67.42</v>
+          </cell>
+          <cell r="N20">
+            <v>46.04</v>
+          </cell>
+          <cell r="O20">
+            <v>21.38</v>
+          </cell>
+          <cell r="P20">
+            <v>35.75</v>
+          </cell>
+          <cell r="Q20">
+            <v>0.200698080279233</v>
+          </cell>
+          <cell r="R20">
+            <v>59.29</v>
+          </cell>
+          <cell r="S20">
+            <v>556.1295</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="X20">
             <v>0</v>
           </cell>
-          <cell r="J20">
-            <v>2788</v>
-          </cell>
-          <cell r="K20">
-            <v>28.87</v>
-          </cell>
-          <cell r="L20">
-            <v>26.48</v>
-          </cell>
-          <cell r="M20">
-            <v>28.31</v>
-          </cell>
-          <cell r="N20">
-            <v>22.8</v>
-          </cell>
-          <cell r="O20">
-            <v>5.51</v>
-          </cell>
-          <cell r="P20">
-            <v>16.09</v>
-          </cell>
-          <cell r="Q20">
-            <v>0.435146443514645</v>
-          </cell>
-          <cell r="R20">
-            <v>26</v>
-          </cell>
-          <cell r="S20">
-            <v>193</v>
+        </row>
+        <row r="20">
+          <cell r="Z20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AC20" t="e">
+            <v>#DIV/0!</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>JG_0000018</v>
+            <v>JG_0000017</v>
           </cell>
           <cell r="B21" t="str">
-            <v>JH_00029</v>
-          </cell>
-          <cell r="C21">
-            <v>601677</v>
+            <v>JH_00028</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>002889</v>
           </cell>
           <cell r="D21" t="str">
-            <v>明泰铝业</v>
+            <v>东方嘉盛</v>
           </cell>
           <cell r="E21">
-            <v>44551</v>
+            <v>44550</v>
           </cell>
           <cell r="F21">
-            <v>39.1</v>
+            <v>27.83</v>
           </cell>
           <cell r="G21">
             <v>100</v>
@@ -2617,96 +2636,317 @@
             <v>5</v>
           </cell>
           <cell r="I21">
-            <v>0.0782</v>
+            <v>0</v>
           </cell>
           <cell r="J21">
-            <v>3915.0782</v>
+            <v>2788</v>
           </cell>
           <cell r="K21">
-            <v>41.2</v>
+            <v>28.87</v>
           </cell>
           <cell r="L21">
-            <v>38</v>
+            <v>26.48</v>
           </cell>
           <cell r="M21">
-            <v>42.71</v>
+            <v>28.31</v>
           </cell>
           <cell r="N21">
-            <v>30.54</v>
+            <v>22.8</v>
           </cell>
           <cell r="O21">
-            <v>12.17</v>
+            <v>5.51</v>
           </cell>
           <cell r="P21">
-            <v>14.89</v>
+            <v>16.09</v>
           </cell>
           <cell r="Q21">
-            <v>0.65625</v>
+            <v>0.435146443514645</v>
           </cell>
           <cell r="R21">
-            <v>35.6</v>
+            <v>26</v>
           </cell>
           <cell r="S21">
-            <v>360.0782</v>
+            <v>0</v>
+          </cell>
+          <cell r="T21">
+            <v>44553</v>
+          </cell>
+          <cell r="U21">
+            <v>26.02</v>
+          </cell>
+          <cell r="V21">
+            <v>100</v>
+          </cell>
+          <cell r="W21">
+            <v>5</v>
+          </cell>
+          <cell r="X21">
+            <v>2.602</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+          <cell r="Z21">
+            <v>2594.398</v>
+          </cell>
+          <cell r="AA21">
+            <v>26.77</v>
+          </cell>
+          <cell r="AB21">
+            <v>25.9</v>
+          </cell>
+          <cell r="AC21">
+            <v>0.13793103448276</v>
+          </cell>
+          <cell r="AD21">
+            <v>-193.602</v>
+          </cell>
+          <cell r="AE21">
+            <v>27.83</v>
+          </cell>
+          <cell r="AF21">
+            <v>26.02</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>JG_0000019</v>
+            <v>JG_0000018</v>
           </cell>
           <cell r="B22" t="str">
-            <v>JH_00017</v>
+            <v>JH_00029</v>
           </cell>
           <cell r="C22">
-            <v>600085</v>
+            <v>601677</v>
           </cell>
           <cell r="D22" t="str">
-            <v>同仁堂</v>
+            <v>明泰铝业</v>
           </cell>
           <cell r="E22">
-            <v>44546</v>
+            <v>44551</v>
           </cell>
           <cell r="F22">
-            <v>38.9</v>
+            <v>39.1</v>
           </cell>
           <cell r="G22">
-            <v>200</v>
+            <v>100</v>
           </cell>
           <cell r="H22">
             <v>5</v>
           </cell>
           <cell r="I22">
+            <v>0.0782</v>
+          </cell>
+          <cell r="J22">
+            <v>3915.0782</v>
+          </cell>
+          <cell r="K22">
+            <v>41.2</v>
+          </cell>
+          <cell r="L22">
+            <v>38</v>
+          </cell>
+          <cell r="M22">
+            <v>42.71</v>
+          </cell>
+          <cell r="N22">
+            <v>30.54</v>
+          </cell>
+          <cell r="O22">
+            <v>12.17</v>
+          </cell>
+          <cell r="P22">
+            <v>14.89</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.65625</v>
+          </cell>
+          <cell r="R22">
+            <v>35.6</v>
+          </cell>
+          <cell r="S22">
+            <v>360.0782</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="X22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Z22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AC22" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>JG_0000019</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>JH_00017</v>
+          </cell>
+          <cell r="C23">
+            <v>600085</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E23">
+            <v>44546</v>
+          </cell>
+          <cell r="F23">
+            <v>38.9</v>
+          </cell>
+          <cell r="G23">
+            <v>200</v>
+          </cell>
+          <cell r="H23">
+            <v>5</v>
+          </cell>
+          <cell r="I23">
             <v>0.1556</v>
           </cell>
-          <cell r="J22">
+          <cell r="J23">
             <v>7785.1556</v>
           </cell>
-          <cell r="K22">
+          <cell r="K23">
             <v>38.95</v>
           </cell>
-          <cell r="L22">
+          <cell r="L23">
             <v>37.47</v>
           </cell>
-          <cell r="M22">
+          <cell r="M23">
             <v>40.39</v>
           </cell>
-          <cell r="N22">
+          <cell r="N23">
             <v>32.08</v>
           </cell>
-          <cell r="O22">
+          <cell r="O23">
             <v>8.31</v>
           </cell>
-          <cell r="P22">
+          <cell r="P23">
             <v>41.56</v>
           </cell>
-          <cell r="Q22">
+          <cell r="Q23">
             <v>0.0337837837837866</v>
           </cell>
-          <cell r="R22">
+          <cell r="R23">
             <v>37</v>
           </cell>
-          <cell r="S22">
-            <v>390.1556</v>
+          <cell r="S23">
+            <v>0</v>
+          </cell>
+          <cell r="T23">
+            <v>44554</v>
+          </cell>
+          <cell r="U23">
+            <v>43.97</v>
+          </cell>
+          <cell r="V23">
+            <v>200</v>
+          </cell>
+          <cell r="W23">
+            <v>5</v>
+          </cell>
+          <cell r="X23">
+            <v>8.794</v>
+          </cell>
+          <cell r="Y23">
+            <v>1.7588</v>
+          </cell>
+          <cell r="Z23">
+            <v>8778.4472</v>
+          </cell>
+          <cell r="AA23">
+            <v>45.9</v>
+          </cell>
+          <cell r="AB23">
+            <v>42.77</v>
+          </cell>
+          <cell r="AC23">
+            <v>0.383386581469648</v>
+          </cell>
+          <cell r="AD23">
+            <v>993.2916</v>
+          </cell>
+          <cell r="AE23">
+            <v>38.9</v>
+          </cell>
+          <cell r="AF23">
+            <v>43.97</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>JG_0000020</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>JH_00034</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>002557</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>洽洽食品</v>
+          </cell>
+          <cell r="E24">
+            <v>44554</v>
+          </cell>
+          <cell r="F24">
+            <v>61.72</v>
+          </cell>
+          <cell r="G24">
+            <v>300</v>
+          </cell>
+          <cell r="H24">
+            <v>5</v>
+          </cell>
+          <cell r="I24">
+            <v>0.37032</v>
+          </cell>
+          <cell r="J24">
+            <v>18521.37032</v>
+          </cell>
+          <cell r="K24">
+            <v>65.65</v>
+          </cell>
+          <cell r="L24">
+            <v>60.7</v>
+          </cell>
+          <cell r="M24">
+            <v>65.61</v>
+          </cell>
+          <cell r="N24">
+            <v>51.84</v>
+          </cell>
+          <cell r="O24">
+            <v>13.77</v>
+          </cell>
+          <cell r="P24">
+            <v>35.28</v>
+          </cell>
+          <cell r="Q24">
+            <v>0.793939393939395</v>
+          </cell>
+          <cell r="R24">
+            <v>59.3</v>
+          </cell>
+          <cell r="S24">
+            <v>736.37032</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>JG_0000021</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>JG_0000022</v>
           </cell>
         </row>
       </sheetData>
@@ -2978,11 +3218,11 @@
   <dimension ref="A1:AG479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3305,7 +3545,7 @@
       </c>
       <c r="K6" s="17">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>0.00447876447876458</v>
+        <v>2.78359511343805</v>
       </c>
       <c r="L6" s="18">
         <f>I6/(ROW()-5)</f>
@@ -3357,7 +3597,7 @@
       </c>
       <c r="AG6" s="4">
         <f>($AF6-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*100</f>
-        <v>-546</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -3394,7 +3634,7 @@
       </c>
       <c r="K7" s="17">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
-        <v>0.0949806949806951</v>
+        <v>3.12449098312973</v>
       </c>
       <c r="L7" s="18">
         <f>I7/(ROW()-5)</f>
@@ -3443,11 +3683,11 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="37">
         <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
-        <v>59.29</v>
+        <v>53.92</v>
       </c>
       <c r="AG7" s="4">
         <f>($AF7-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*100</f>
-        <v>-546</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -3484,7 +3724,7 @@
       </c>
       <c r="K8" s="17">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
-        <v>0.113204633204633</v>
+        <v>3.19313554392088</v>
       </c>
       <c r="L8" s="18">
         <f>I8/(ROW()-5)</f>
@@ -3533,11 +3773,11 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="37">
         <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
-        <v>59.29</v>
+        <v>54.63</v>
       </c>
       <c r="AG8" s="4">
         <f>($AF8-VLOOKUP([1]交易计划及执行表!$A$19,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*100</f>
-        <v>-546</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="9" spans="1:32">
